--- a/data/trans_orig/IP3108-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP3108-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{852BE96F-8233-421F-846A-37BB97455757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92C350ED-A59A-44B5-A3B2-3B0BD6104BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{94C276E2-58D3-4E9A-B626-CEE0071CEF5D}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{04C349EE-167C-4B51-AE5B-0BB1D273F44F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,6 +70,66 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Todos los dias</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>5 o 6 veces a la semana</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
     <t>3 o 4 veces a la semana</t>
   </si>
   <si>
@@ -100,34 +160,34 @@
     <t>5,08%</t>
   </si>
   <si>
-    <t>5 o 6 veces a la semana</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -142,12 +202,6 @@
     <t>3,49%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>2,53%</t>
   </si>
   <si>
@@ -160,75 +214,201 @@
     <t>2,48%</t>
   </si>
   <si>
-    <t>Todos los dias</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
     <t>3,15%</t>
   </si>
   <si>
     <t>1,72%</t>
   </si>
   <si>
-    <t>5,34%</t>
-  </si>
-  <si>
     <t>3,77%</t>
   </si>
   <si>
@@ -244,31 +424,22 @@
     <t>2,35%</t>
   </si>
   <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
   </si>
   <si>
     <t>2,11%</t>
@@ -295,175 +466,52 @@
     <t>3,27%</t>
   </si>
   <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
   </si>
   <si>
     <t>3,36%</t>
@@ -490,25 +538,25 @@
     <t>4,28%</t>
   </si>
   <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
   </si>
   <si>
     <t>1,58%</t>
@@ -532,57 +580,54 @@
     <t>2,26%</t>
   </si>
   <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
     <t>Menores según la frecuencia de tomar leche en 2012 (Tasa respuesta: 90,9%)</t>
   </si>
   <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
     <t>0,75%</t>
   </si>
   <si>
@@ -592,22 +637,19 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
   </si>
   <si>
     <t>0,94%</t>
@@ -622,46 +664,157 @@
     <t>2,13%</t>
   </si>
   <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
   </si>
   <si>
     <t>1,21%</t>
@@ -688,28 +841,16 @@
     <t>4,61%</t>
   </si>
   <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
   </si>
   <si>
     <t>4,04%</t>
@@ -733,145 +874,37 @@
     <t>4,03%</t>
   </si>
   <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
   </si>
   <si>
     <t>1,08%</t>
@@ -895,10 +928,22 @@
     <t>3,24%</t>
   </si>
   <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
   </si>
   <si>
     <t>1,52%</t>
@@ -919,54 +964,48 @@
     <t>2,25%</t>
   </si>
   <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
     <t>Menores según la frecuencia de tomar leche en 2015 (Tasa respuesta: 90,55%)</t>
   </si>
   <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
     <t>1,82%</t>
   </si>
   <si>
@@ -982,64 +1021,151 @@
     <t>5,05%</t>
   </si>
   <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
+    <t>0%</t>
   </si>
   <si>
     <t>0,79%</t>
   </si>
   <si>
+    <t>0,49%</t>
+  </si>
+  <si>
     <t>2,84%</t>
   </si>
   <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
   </si>
   <si>
     <t>2,16%</t>
@@ -1060,145 +1186,61 @@
     <t>3,97%</t>
   </si>
   <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
   </si>
   <si>
     <t>4,48%</t>
   </si>
   <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
   </si>
   <si>
     <t>3,12%</t>
@@ -1210,22 +1252,10 @@
     <t>2,28%</t>
   </si>
   <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
   </si>
   <si>
     <t>0,59%</t>
@@ -1238,36 +1268,6 @@
   </si>
   <si>
     <t>2,24%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
   </si>
 </sst>
 </file>
@@ -1659,7 +1659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA94B2C-2EB2-4B60-AE57-C196E7A871E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E6E714-C354-4E15-97C7-394F346D0C26}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1777,10 +1777,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="D4" s="7">
-        <v>7062</v>
+        <v>164381</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1792,10 +1792,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>237</v>
       </c>
       <c r="I4" s="7">
-        <v>3877</v>
+        <v>156859</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1807,10 +1807,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>16</v>
+        <v>484</v>
       </c>
       <c r="N4" s="7">
-        <v>10939</v>
+        <v>321240</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1879,10 +1879,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D6" s="7">
-        <v>2712</v>
+        <v>7062</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1894,10 +1894,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I6" s="7">
-        <v>1220</v>
+        <v>3877</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1909,10 +1909,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="N6" s="7">
-        <v>3931</v>
+        <v>10939</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1930,10 +1930,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>247</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>164381</v>
+        <v>1305</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1945,10 +1945,10 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>237</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>156859</v>
+        <v>3188</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1960,10 +1960,10 @@
         <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>484</v>
+        <v>7</v>
       </c>
       <c r="N7" s="7">
-        <v>321240</v>
+        <v>4493</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1981,40 +1981,40 @@
         <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>1305</v>
+        <v>2712</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>3188</v>
+        <v>1220</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>54</v>
       </c>
       <c r="M8" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N8" s="7">
-        <v>4493</v>
+        <v>3931</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>55</v>
@@ -2085,10 +2085,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>13</v>
+        <v>306</v>
       </c>
       <c r="D10" s="7">
-        <v>8755</v>
+        <v>202193</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -2100,10 +2100,10 @@
         <v>62</v>
       </c>
       <c r="H10" s="7">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="I10" s="7">
-        <v>9868</v>
+        <v>180481</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -2115,10 +2115,10 @@
         <v>65</v>
       </c>
       <c r="M10" s="7">
-        <v>28</v>
+        <v>573</v>
       </c>
       <c r="N10" s="7">
-        <v>18623</v>
+        <v>382674</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -2136,10 +2136,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>6039</v>
+        <v>1972</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>69</v>
@@ -2154,22 +2154,22 @@
         <v>10</v>
       </c>
       <c r="I11" s="7">
-        <v>6951</v>
+        <v>6700</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="M11" s="7">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N11" s="7">
-        <v>12990</v>
+        <v>8672</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>74</v>
@@ -2187,49 +2187,49 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" s="7">
-        <v>5873</v>
+        <v>6765</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H12" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I12" s="7">
-        <v>6026</v>
+        <v>8409</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M12" s="7">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N12" s="7">
-        <v>11899</v>
+        <v>15175</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2238,13 +2238,13 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>375</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>250441</v>
+        <v>3373</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>86</v>
@@ -2253,10 +2253,10 @@
         <v>87</v>
       </c>
       <c r="H13" s="7">
-        <v>348</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>234556</v>
+        <v>1990</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>88</v>
@@ -2268,10 +2268,10 @@
         <v>90</v>
       </c>
       <c r="M13" s="7">
-        <v>723</v>
+        <v>8</v>
       </c>
       <c r="N13" s="7">
-        <v>484997</v>
+        <v>5362</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>91</v>
@@ -2289,49 +2289,49 @@
         <v>50</v>
       </c>
       <c r="C14" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>6693</v>
+        <v>1999</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
       </c>
       <c r="I14" s="7">
-        <v>4198</v>
+        <v>3584</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="M14" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="N14" s="7">
-        <v>10891</v>
+        <v>5582</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2340,10 +2340,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>416</v>
+        <v>327</v>
       </c>
       <c r="D15" s="7">
-        <v>277802</v>
+        <v>216302</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>58</v>
@@ -2355,10 +2355,10 @@
         <v>58</v>
       </c>
       <c r="H15" s="7">
-        <v>388</v>
+        <v>298</v>
       </c>
       <c r="I15" s="7">
-        <v>261599</v>
+        <v>201163</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>58</v>
@@ -2370,10 +2370,10 @@
         <v>58</v>
       </c>
       <c r="M15" s="7">
-        <v>804</v>
+        <v>625</v>
       </c>
       <c r="N15" s="7">
-        <v>539401</v>
+        <v>417465</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>58</v>
@@ -2387,55 +2387,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>10</v>
+        <v>375</v>
       </c>
       <c r="D16" s="7">
-        <v>6765</v>
+        <v>250441</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H16" s="7">
-        <v>12</v>
+        <v>348</v>
       </c>
       <c r="I16" s="7">
-        <v>8409</v>
+        <v>234556</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M16" s="7">
-        <v>22</v>
+        <v>723</v>
       </c>
       <c r="N16" s="7">
-        <v>15175</v>
+        <v>484997</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2444,49 +2444,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D17" s="7">
-        <v>1972</v>
+        <v>6039</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
       </c>
       <c r="I17" s="7">
-        <v>6700</v>
+        <v>6951</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M17" s="7">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N17" s="7">
-        <v>8672</v>
+        <v>12990</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2495,49 +2495,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D18" s="7">
-        <v>1999</v>
+        <v>8755</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" s="7">
+        <v>15</v>
+      </c>
+      <c r="I18" s="7">
+        <v>9868</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M18" s="7">
+        <v>28</v>
+      </c>
+      <c r="N18" s="7">
+        <v>18623</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H18" s="7">
-        <v>6</v>
-      </c>
-      <c r="I18" s="7">
-        <v>3584</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="M18" s="7">
-        <v>9</v>
-      </c>
-      <c r="N18" s="7">
-        <v>5582</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2546,49 +2546,49 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>306</v>
+        <v>10</v>
       </c>
       <c r="D19" s="7">
-        <v>202193</v>
+        <v>6693</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H19" s="7">
-        <v>267</v>
+        <v>6</v>
       </c>
       <c r="I19" s="7">
-        <v>180481</v>
+        <v>4198</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M19" s="7">
+        <v>16</v>
+      </c>
+      <c r="N19" s="7">
+        <v>10891</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="M19" s="7">
-        <v>573</v>
-      </c>
-      <c r="N19" s="7">
-        <v>382674</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2597,25 +2597,25 @@
         <v>50</v>
       </c>
       <c r="C20" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D20" s="7">
-        <v>3373</v>
+        <v>5873</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>135</v>
       </c>
       <c r="H20" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I20" s="7">
-        <v>1990</v>
+        <v>6026</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>136</v>
@@ -2627,10 +2627,10 @@
         <v>138</v>
       </c>
       <c r="M20" s="7">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N20" s="7">
-        <v>5362</v>
+        <v>11899</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>139</v>
@@ -2648,10 +2648,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>327</v>
+        <v>416</v>
       </c>
       <c r="D21" s="7">
-        <v>216302</v>
+        <v>277802</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>58</v>
@@ -2663,10 +2663,10 @@
         <v>58</v>
       </c>
       <c r="H21" s="7">
-        <v>298</v>
+        <v>388</v>
       </c>
       <c r="I21" s="7">
-        <v>201163</v>
+        <v>261599</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>58</v>
@@ -2678,10 +2678,10 @@
         <v>58</v>
       </c>
       <c r="M21" s="7">
-        <v>625</v>
+        <v>804</v>
       </c>
       <c r="N21" s="7">
-        <v>417465</v>
+        <v>539401</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>58</v>
@@ -2701,10 +2701,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>33</v>
+        <v>928</v>
       </c>
       <c r="D22" s="7">
-        <v>22581</v>
+        <v>617015</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>142</v>
@@ -2716,34 +2716,34 @@
         <v>144</v>
       </c>
       <c r="H22" s="7">
-        <v>33</v>
+        <v>852</v>
       </c>
       <c r="I22" s="7">
-        <v>22155</v>
+        <v>571897</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>145</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>39</v>
+        <v>146</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M22" s="7">
-        <v>66</v>
+        <v>1780</v>
       </c>
       <c r="N22" s="7">
-        <v>44737</v>
+        <v>1188912</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2758,13 +2758,13 @@
         <v>10003</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H23" s="7">
         <v>24</v>
@@ -2773,13 +2773,13 @@
         <v>16044</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M23" s="7">
         <v>39</v>
@@ -2788,13 +2788,13 @@
         <v>26047</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2803,49 +2803,49 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D24" s="7">
-        <v>10584</v>
+        <v>22581</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H24" s="7">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I24" s="7">
-        <v>10829</v>
+        <v>22155</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M24" s="7">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="N24" s="7">
-        <v>21413</v>
+        <v>44737</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2854,46 +2854,46 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>928</v>
+        <v>17</v>
       </c>
       <c r="D25" s="7">
-        <v>617015</v>
+        <v>11371</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H25" s="7">
-        <v>852</v>
+        <v>14</v>
       </c>
       <c r="I25" s="7">
-        <v>571897</v>
+        <v>9376</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M25" s="7">
-        <v>1780</v>
+        <v>31</v>
       </c>
       <c r="N25" s="7">
-        <v>1188912</v>
+        <v>20746</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>172</v>
@@ -2905,10 +2905,10 @@
         <v>50</v>
       </c>
       <c r="C26" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26" s="7">
-        <v>11371</v>
+        <v>10584</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>173</v>
@@ -2920,31 +2920,31 @@
         <v>175</v>
       </c>
       <c r="H26" s="7">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I26" s="7">
-        <v>9376</v>
+        <v>10829</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>33</v>
+      </c>
+      <c r="N26" s="7">
+        <v>21413</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="M26" s="7">
-        <v>31</v>
-      </c>
-      <c r="N26" s="7">
-        <v>20746</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>179</v>
@@ -3017,7 +3017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F3DB27-41CE-4DD6-9B6B-1095C87FA954}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99BFC7B-D52B-4F51-A057-C8D90E7582E8}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3135,49 +3135,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>241</v>
       </c>
       <c r="D4" s="7">
-        <v>1337</v>
+        <v>169153</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>181</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>35</v>
+        <v>182</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>239</v>
       </c>
       <c r="I4" s="7">
-        <v>569</v>
+        <v>157026</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>22</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>35</v>
+        <v>185</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>480</v>
       </c>
       <c r="N4" s="7">
-        <v>1906</v>
+        <v>326179</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>56</v>
+        <v>187</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>103</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3192,13 +3192,13 @@
         <v>4305</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -3207,13 +3207,13 @@
         <v>3018</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -3222,13 +3222,13 @@
         <v>7323</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3240,46 +3240,46 @@
         <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>1665</v>
+        <v>1337</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="H6" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>1280</v>
+        <v>569</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>151</v>
+        <v>22</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="M6" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>2945</v>
+        <v>1906</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>176</v>
+        <v>48</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>118</v>
+        <v>198</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>193</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3288,49 +3288,49 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>241</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>169153</v>
+        <v>1439</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>195</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H7" s="7">
-        <v>239</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>157026</v>
+        <v>1936</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>198</v>
+        <v>95</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M7" s="7">
-        <v>480</v>
+        <v>5</v>
       </c>
       <c r="N7" s="7">
-        <v>326179</v>
+        <v>3375</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>200</v>
+        <v>88</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>201</v>
+        <v>52</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3342,43 +3342,43 @@
         <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>1439</v>
+        <v>1665</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>1936</v>
+        <v>1280</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>205</v>
+        <v>152</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>206</v>
       </c>
       <c r="M8" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N8" s="7">
-        <v>3375</v>
+        <v>2945</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>207</v>
@@ -3443,49 +3443,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>10</v>
+        <v>309</v>
       </c>
       <c r="D10" s="7">
-        <v>6472</v>
+        <v>223059</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>152</v>
+        <v>208</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H10" s="7">
-        <v>15</v>
+        <v>297</v>
       </c>
       <c r="I10" s="7">
-        <v>10522</v>
+        <v>211853</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M10" s="7">
-        <v>25</v>
+        <v>606</v>
       </c>
       <c r="N10" s="7">
-        <v>16994</v>
+        <v>434912</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,49 +3494,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>7706</v>
+        <v>3718</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>216</v>
+        <v>78</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>217</v>
       </c>
       <c r="H11" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I11" s="7">
-        <v>8868</v>
+        <v>4402</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>218</v>
+        <v>98</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>219</v>
       </c>
       <c r="M11" s="7">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="N11" s="7">
-        <v>16574</v>
+        <v>8120</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3548,46 +3548,46 @@
         <v>7</v>
       </c>
       <c r="D12" s="7">
-        <v>4780</v>
+        <v>5019</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>12</v>
+      </c>
+      <c r="I12" s="7">
+        <v>8603</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="H12" s="7">
-        <v>13</v>
-      </c>
-      <c r="I12" s="7">
-        <v>8903</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>19</v>
+      </c>
+      <c r="N12" s="7">
+        <v>13622</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="M12" s="7">
-        <v>20</v>
-      </c>
-      <c r="N12" s="7">
-        <v>13683</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3596,49 +3596,49 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>362</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>246646</v>
+        <v>2104</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="7">
+        <v>3</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2849</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="H13" s="7">
-        <v>312</v>
-      </c>
-      <c r="I13" s="7">
-        <v>219131</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>6</v>
+      </c>
+      <c r="N13" s="7">
+        <v>4954</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="M13" s="7">
-        <v>674</v>
-      </c>
-      <c r="N13" s="7">
-        <v>465778</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3647,49 +3647,49 @@
         <v>50</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" s="7">
-        <v>2034</v>
+        <v>3919</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H14" s="7">
+        <v>2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1321</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="M14" s="7">
+        <v>7</v>
+      </c>
+      <c r="N14" s="7">
+        <v>5240</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="H14" s="7">
-        <v>10</v>
-      </c>
-      <c r="I14" s="7">
-        <v>6807</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M14" s="7">
-        <v>13</v>
-      </c>
-      <c r="N14" s="7">
-        <v>8840</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3698,10 +3698,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>394</v>
+        <v>329</v>
       </c>
       <c r="D15" s="7">
-        <v>267638</v>
+        <v>237819</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>58</v>
@@ -3713,10 +3713,10 @@
         <v>58</v>
       </c>
       <c r="H15" s="7">
-        <v>362</v>
+        <v>320</v>
       </c>
       <c r="I15" s="7">
-        <v>254231</v>
+        <v>229029</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>58</v>
@@ -3728,10 +3728,10 @@
         <v>58</v>
       </c>
       <c r="M15" s="7">
-        <v>756</v>
+        <v>649</v>
       </c>
       <c r="N15" s="7">
-        <v>521869</v>
+        <v>466848</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>58</v>
@@ -3745,19 +3745,19 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>7</v>
+        <v>362</v>
       </c>
       <c r="D16" s="7">
-        <v>5019</v>
+        <v>246646</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>244</v>
@@ -3766,10 +3766,10 @@
         <v>245</v>
       </c>
       <c r="H16" s="7">
-        <v>12</v>
+        <v>312</v>
       </c>
       <c r="I16" s="7">
-        <v>8603</v>
+        <v>219131</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>246</v>
@@ -3781,19 +3781,19 @@
         <v>248</v>
       </c>
       <c r="M16" s="7">
-        <v>19</v>
+        <v>674</v>
       </c>
       <c r="N16" s="7">
-        <v>13622</v>
+        <v>465778</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>249</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3802,49 +3802,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D17" s="7">
-        <v>3718</v>
+        <v>7706</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>103</v>
+        <v>252</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H17" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I17" s="7">
-        <v>4402</v>
+        <v>8868</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>252</v>
+        <v>53</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>121</v>
+        <v>254</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M17" s="7">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="N17" s="7">
-        <v>8120</v>
+        <v>16574</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>182</v>
+        <v>256</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,49 +3853,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D18" s="7">
-        <v>3919</v>
+        <v>6472</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>256</v>
+        <v>153</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H18" s="7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I18" s="7">
-        <v>1321</v>
+        <v>10522</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>35</v>
+        <v>262</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>223</v>
+        <v>263</v>
       </c>
       <c r="M18" s="7">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="N18" s="7">
-        <v>5240</v>
+        <v>16994</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>264</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,49 +3904,49 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>309</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>223059</v>
+        <v>2034</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="H19" s="7">
-        <v>297</v>
+        <v>10</v>
       </c>
       <c r="I19" s="7">
-        <v>211853</v>
+        <v>6807</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>266</v>
+        <v>100</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>267</v>
+        <v>46</v>
       </c>
       <c r="M19" s="7">
-        <v>606</v>
+        <v>13</v>
       </c>
       <c r="N19" s="7">
-        <v>434912</v>
+        <v>8840</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>268</v>
+        <v>166</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>269</v>
+        <v>94</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,28 +3955,28 @@
         <v>50</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D20" s="7">
-        <v>2104</v>
+        <v>4780</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>13</v>
+      </c>
+      <c r="I20" s="7">
+        <v>8903</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2849</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>273</v>
@@ -3985,10 +3985,10 @@
         <v>274</v>
       </c>
       <c r="M20" s="7">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="N20" s="7">
-        <v>4954</v>
+        <v>13683</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>275</v>
@@ -4006,10 +4006,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>329</v>
+        <v>394</v>
       </c>
       <c r="D21" s="7">
-        <v>237819</v>
+        <v>267638</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>58</v>
@@ -4021,10 +4021,10 @@
         <v>58</v>
       </c>
       <c r="H21" s="7">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="I21" s="7">
-        <v>229029</v>
+        <v>254231</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>58</v>
@@ -4036,10 +4036,10 @@
         <v>58</v>
       </c>
       <c r="M21" s="7">
-        <v>649</v>
+        <v>756</v>
       </c>
       <c r="N21" s="7">
-        <v>466848</v>
+        <v>521869</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>58</v>
@@ -4059,49 +4059,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>19</v>
+        <v>912</v>
       </c>
       <c r="D22" s="7">
-        <v>12828</v>
+        <v>638858</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H22" s="7">
-        <v>28</v>
+        <v>848</v>
       </c>
       <c r="I22" s="7">
-        <v>19694</v>
+        <v>588010</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>71</v>
+        <v>283</v>
       </c>
       <c r="M22" s="7">
-        <v>47</v>
+        <v>1760</v>
       </c>
       <c r="N22" s="7">
-        <v>32522</v>
+        <v>1226868</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4116,13 +4116,13 @@
         <v>15728</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="H23" s="7">
         <v>23</v>
@@ -4131,13 +4131,13 @@
         <v>16289</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="M23" s="7">
         <v>46</v>
@@ -4146,13 +4146,13 @@
         <v>32017</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4161,49 +4161,49 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D24" s="7">
-        <v>10364</v>
+        <v>12828</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>287</v>
+        <v>225</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>153</v>
+        <v>290</v>
       </c>
       <c r="H24" s="7">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I24" s="7">
-        <v>11505</v>
+        <v>19694</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>120</v>
+        <v>291</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>290</v>
+        <v>114</v>
       </c>
       <c r="M24" s="7">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="N24" s="7">
-        <v>21869</v>
+        <v>32522</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>161</v>
+        <v>293</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4212,40 +4212,40 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>912</v>
+        <v>8</v>
       </c>
       <c r="D25" s="7">
-        <v>638858</v>
+        <v>5577</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>293</v>
+        <v>98</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H25" s="7">
-        <v>848</v>
+        <v>16</v>
       </c>
       <c r="I25" s="7">
-        <v>588010</v>
+        <v>11592</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>296</v>
+        <v>228</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>298</v>
+        <v>252</v>
       </c>
       <c r="M25" s="7">
-        <v>1760</v>
+        <v>24</v>
       </c>
       <c r="N25" s="7">
-        <v>1226868</v>
+        <v>17169</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>299</v>
@@ -4263,43 +4263,43 @@
         <v>50</v>
       </c>
       <c r="C26" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D26" s="7">
-        <v>5577</v>
+        <v>10364</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>121</v>
+        <v>302</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>303</v>
+        <v>154</v>
       </c>
       <c r="H26" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I26" s="7">
-        <v>11592</v>
+        <v>11505</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>223</v>
+        <v>97</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>304</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>216</v>
+        <v>305</v>
       </c>
       <c r="M26" s="7">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N26" s="7">
-        <v>17169</v>
+        <v>21869</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>305</v>
+        <v>177</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>306</v>
@@ -4375,7 +4375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14BF9B5-D072-4AEB-99D6-62AB570B6990}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D2C934-7511-4C19-8CC0-4C2215FE6F80}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4493,10 +4493,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>227</v>
       </c>
       <c r="D4" s="7">
-        <v>2924</v>
+        <v>149940</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>309</v>
@@ -4508,34 +4508,34 @@
         <v>311</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>227</v>
       </c>
       <c r="I4" s="7">
-        <v>3213</v>
+        <v>139086</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>106</v>
+        <v>312</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M4" s="7">
-        <v>9</v>
+        <v>454</v>
       </c>
       <c r="N4" s="7">
-        <v>6137</v>
+        <v>289025</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>155</v>
+        <v>315</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4550,13 +4550,13 @@
         <v>6270</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -4565,13 +4565,13 @@
         <v>3338</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -4580,13 +4580,13 @@
         <v>9608</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4595,49 +4595,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>1273</v>
+        <v>2924</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>35</v>
+        <v>323</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" s="7">
-        <v>664</v>
+        <v>3213</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>276</v>
+        <v>81</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>35</v>
+        <v>325</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>36</v>
+        <v>326</v>
       </c>
       <c r="M6" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N6" s="7">
-        <v>1938</v>
+        <v>6137</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>320</v>
+        <v>230</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>173</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4646,49 +4646,49 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>149940</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>321</v>
+        <v>42</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="H7" s="7">
-        <v>227</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>139086</v>
+        <v>727</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>325</v>
+        <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="M7" s="7">
-        <v>454</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>289025</v>
+        <v>727</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>328</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4697,49 +4697,49 @@
         <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>1273</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>35</v>
+        <v>328</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>727</v>
+        <v>664</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>331</v>
+        <v>235</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>319</v>
+        <v>54</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N8" s="7">
-        <v>727</v>
+        <v>1938</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>332</v>
+        <v>92</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>35</v>
+        <v>333</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>333</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,49 +4801,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>8</v>
+        <v>329</v>
       </c>
       <c r="D10" s="7">
-        <v>5922</v>
+        <v>227065</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>334</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>328</v>
+      </c>
+      <c r="I10" s="7">
+        <v>215167</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="H10" s="7">
-        <v>11</v>
-      </c>
-      <c r="I10" s="7">
-        <v>8114</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>337</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>19</v>
+        <v>338</v>
       </c>
       <c r="M10" s="7">
-        <v>19</v>
+        <v>657</v>
       </c>
       <c r="N10" s="7">
-        <v>14036</v>
+        <v>442231</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>228</v>
+        <v>339</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>338</v>
+        <v>251</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4852,49 +4852,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D11" s="7">
-        <v>13749</v>
+        <v>9647</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>341</v>
+        <v>242</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>342</v>
       </c>
       <c r="H11" s="7">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I11" s="7">
-        <v>15459</v>
+        <v>6052</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>343</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>24</v>
+      </c>
+      <c r="N11" s="7">
+        <v>15699</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="M11" s="7">
-        <v>39</v>
-      </c>
-      <c r="N11" s="7">
-        <v>29208</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4903,49 +4903,49 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D12" s="7">
-        <v>1413</v>
+        <v>5313</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>349</v>
+        <v>112</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="H12" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I12" s="7">
-        <v>6250</v>
+        <v>4530</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>109</v>
+        <v>348</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>289</v>
+        <v>349</v>
       </c>
       <c r="L12" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="M12" s="7">
+        <v>15</v>
+      </c>
+      <c r="N12" s="7">
+        <v>9844</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="M12" s="7">
-        <v>11</v>
-      </c>
-      <c r="N12" s="7">
-        <v>7662</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="Q12" s="7" t="s">
-        <v>52</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4954,49 +4954,49 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>341</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>250974</v>
+        <v>1542</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H13" s="7">
+        <v>3</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1777</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>5</v>
+      </c>
+      <c r="N13" s="7">
+        <v>3319</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="H13" s="7">
-        <v>323</v>
-      </c>
-      <c r="I13" s="7">
-        <v>230493</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="P13" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="M13" s="7">
-        <v>664</v>
-      </c>
-      <c r="N13" s="7">
-        <v>481467</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5005,49 +5005,49 @@
         <v>50</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>2193</v>
+        <v>1297</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>312</v>
+        <v>355</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>359</v>
+        <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>2091</v>
+        <v>1190</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>312</v>
+        <v>357</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>332</v>
+        <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>69</v>
+        <v>171</v>
       </c>
       <c r="M14" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N14" s="7">
-        <v>4284</v>
+        <v>2487</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>312</v>
+        <v>355</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>362</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5056,10 +5056,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="D15" s="7">
-        <v>274251</v>
+        <v>244864</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>58</v>
@@ -5071,10 +5071,10 @@
         <v>58</v>
       </c>
       <c r="H15" s="7">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="I15" s="7">
-        <v>262406</v>
+        <v>228716</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>58</v>
@@ -5086,10 +5086,10 @@
         <v>58</v>
       </c>
       <c r="M15" s="7">
-        <v>739</v>
+        <v>705</v>
       </c>
       <c r="N15" s="7">
-        <v>536657</v>
+        <v>473579</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>58</v>
@@ -5103,55 +5103,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>341</v>
       </c>
       <c r="D16" s="7">
-        <v>5313</v>
+        <v>250974</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>69</v>
+        <v>359</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>15</v>
+        <v>360</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="H16" s="7">
+        <v>323</v>
+      </c>
+      <c r="I16" s="7">
+        <v>230493</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="H16" s="7">
-        <v>7</v>
-      </c>
-      <c r="I16" s="7">
-        <v>4530</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>664</v>
+      </c>
+      <c r="N16" s="7">
+        <v>481467</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="M16" s="7">
-        <v>15</v>
-      </c>
-      <c r="N16" s="7">
-        <v>9844</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,49 +5160,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D17" s="7">
-        <v>9647</v>
+        <v>13749</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>367</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>261</v>
+        <v>368</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H17" s="7">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I17" s="7">
-        <v>6052</v>
+        <v>15459</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>83</v>
+        <v>371</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M17" s="7">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="N17" s="7">
-        <v>15699</v>
+        <v>29208</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>64</v>
+        <v>374</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,49 +5211,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D18" s="7">
-        <v>1297</v>
+        <v>5922</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>35</v>
+        <v>377</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="H18" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I18" s="7">
-        <v>1190</v>
+        <v>8114</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>349</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>35</v>
+        <v>379</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>178</v>
+        <v>39</v>
       </c>
       <c r="M18" s="7">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="N18" s="7">
-        <v>2487</v>
+        <v>14036</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>373</v>
+        <v>275</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>83</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,49 +5262,49 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>329</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>227065</v>
+        <v>2193</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>376</v>
+        <v>325</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>91</v>
+        <v>382</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="H19" s="7">
-        <v>328</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>215167</v>
+        <v>2091</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>378</v>
+        <v>325</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>379</v>
+        <v>331</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>380</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
-        <v>657</v>
+        <v>6</v>
       </c>
       <c r="N19" s="7">
-        <v>442231</v>
+        <v>4284</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>381</v>
+        <v>325</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>239</v>
+        <v>384</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5316,46 +5316,46 @@
         <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>1542</v>
+        <v>1413</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>357</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>82</v>
+        <v>319</v>
       </c>
       <c r="H20" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I20" s="7">
-        <v>1777</v>
+        <v>6250</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>151</v>
+        <v>84</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>383</v>
+        <v>304</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M20" s="7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N20" s="7">
-        <v>3319</v>
+        <v>7662</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>385</v>
+        <v>24</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>272</v>
+        <v>45</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>386</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5364,10 +5364,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>244864</v>
+        <v>274251</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>58</v>
@@ -5379,10 +5379,10 @@
         <v>58</v>
       </c>
       <c r="H21" s="7">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="I21" s="7">
-        <v>228716</v>
+        <v>262406</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>58</v>
@@ -5394,10 +5394,10 @@
         <v>58</v>
       </c>
       <c r="M21" s="7">
-        <v>705</v>
+        <v>739</v>
       </c>
       <c r="N21" s="7">
-        <v>473579</v>
+        <v>536657</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>58</v>
@@ -5417,49 +5417,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>20</v>
+        <v>897</v>
       </c>
       <c r="D22" s="7">
-        <v>14159</v>
+        <v>627978</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>114</v>
+        <v>387</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H22" s="7">
-        <v>23</v>
+        <v>878</v>
       </c>
       <c r="I22" s="7">
-        <v>15858</v>
+        <v>584744</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>159</v>
+        <v>390</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>96</v>
+        <v>391</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="M22" s="7">
-        <v>43</v>
+        <v>1775</v>
       </c>
       <c r="N22" s="7">
-        <v>30017</v>
+        <v>1212723</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>256</v>
+        <v>209</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>286</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5474,13 +5474,13 @@
         <v>29667</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="H23" s="7">
         <v>37</v>
@@ -5489,13 +5489,13 @@
         <v>24849</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="M23" s="7">
         <v>77</v>
@@ -5504,13 +5504,13 @@
         <v>54516</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5519,49 +5519,49 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D24" s="7">
-        <v>3983</v>
+        <v>14159</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>396</v>
+        <v>74</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>397</v>
+        <v>350</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>99</v>
+        <v>401</v>
       </c>
       <c r="H24" s="7">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I24" s="7">
-        <v>8103</v>
+        <v>15858</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>398</v>
+        <v>72</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="M24" s="7">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="N24" s="7">
-        <v>12087</v>
+        <v>30017</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>117</v>
+        <v>403</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>56</v>
+        <v>237</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>73</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5570,49 +5570,49 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>897</v>
+        <v>5</v>
       </c>
       <c r="D25" s="7">
-        <v>627978</v>
+        <v>3735</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>400</v>
+        <v>28</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>402</v>
+        <v>178</v>
       </c>
       <c r="H25" s="7">
-        <v>878</v>
+        <v>7</v>
       </c>
       <c r="I25" s="7">
-        <v>584744</v>
+        <v>4595</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>404</v>
+        <v>70</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>405</v>
+        <v>24</v>
       </c>
       <c r="M25" s="7">
-        <v>1775</v>
+        <v>12</v>
       </c>
       <c r="N25" s="7">
-        <v>1212723</v>
+        <v>8330</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>406</v>
+        <v>92</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>407</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5621,49 +5621,49 @@
         <v>50</v>
       </c>
       <c r="C26" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D26" s="7">
-        <v>3735</v>
+        <v>3983</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>28</v>
+        <v>406</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H26" s="7">
+        <v>12</v>
+      </c>
+      <c r="I26" s="7">
+        <v>8103</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="H26" s="7">
-        <v>7</v>
-      </c>
-      <c r="I26" s="7">
-        <v>4595</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="M26" s="7">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N26" s="7">
-        <v>8330</v>
+        <v>12087</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>302</v>
+        <v>48</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>278</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP3108-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP3108-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92C350ED-A59A-44B5-A3B2-3B0BD6104BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD59FB26-4352-4957-9115-E2AE6DEE8580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{04C349EE-167C-4B51-AE5B-0BB1D273F44F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{51FA16B9-5B8F-45D7-B87E-C9313D9CD24C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="494">
   <si>
     <t>Menores según la frecuencia de tomar leche en 2007 (Tasa respuesta: 92,63%)</t>
   </si>
@@ -67,1207 +67,1459 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3 o 4 veces a la semana</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>5 o 6 veces a la semana</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
   </si>
   <si>
     <t>Todos los dias</t>
   </si>
   <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
     <t>92,63%</t>
   </si>
   <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia de tomar leche en 2012 (Tasa respuesta: 90,9%)</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
     <t>88,6%</t>
   </si>
   <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>5 o 6 veces a la semana</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia de tomar leche en 2015 (Tasa respuesta: 90,55%)</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
   </si>
   <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
   </si>
   <si>
     <t>0,55%</t>
   </si>
   <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>3 o 4 veces a la semana</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
+    <t>0,72%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
   </si>
   <si>
     <t>2,73%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia de tomar leche en 2012 (Tasa respuesta: 90,9%)</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
+    <t>5,2%</t>
   </si>
   <si>
     <t>3,26%</t>
   </si>
   <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia de tomar leche en 2015 (Tasa respuesta: 90,55%)</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
     <t>92,41%</t>
   </si>
   <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
+    <t>90,5%</t>
   </si>
   <si>
     <t>91,63%</t>
   </si>
   <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
   </si>
   <si>
     <t>92,04%</t>
   </si>
   <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
   </si>
 </sst>
 </file>
@@ -1278,7 +1530,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1374,39 +1626,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1458,7 +1710,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1569,13 +1821,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1584,6 +1829,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1648,19 +1900,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E6E714-C354-4E15-97C7-394F346D0C26}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDEFF5D9-E554-47F6-A11A-5EEB692DC210}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1777,10 +2049,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>247</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>164381</v>
+        <v>2062</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1792,10 +2064,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>156859</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1807,10 +2079,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>484</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>321240</v>
+        <v>2062</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1828,202 +2100,202 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>1991</v>
+        <v>603</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>3</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1880</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
+      <c r="K5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="7">
         <v>4</v>
       </c>
-      <c r="I5" s="7">
-        <v>2393</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
+      <c r="N5" s="7">
+        <v>2483</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="7">
-        <v>7</v>
-      </c>
-      <c r="N5" s="7">
-        <v>4385</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2292</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="7">
-        <v>10</v>
-      </c>
-      <c r="D6" s="7">
-        <v>7062</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="7">
+        <v>3</v>
+      </c>
+      <c r="N6" s="7">
+        <v>2292</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="7">
-        <v>6</v>
-      </c>
-      <c r="I6" s="7">
-        <v>3877</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="P6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" s="7">
-        <v>16</v>
-      </c>
-      <c r="N6" s="7">
-        <v>10939</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>1305</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>3188</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="M7" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>4493</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="D8" s="7">
-        <v>2712</v>
+        <v>70712</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="I8" s="7">
-        <v>1220</v>
+        <v>63573</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="7">
+        <v>203</v>
+      </c>
+      <c r="N8" s="7">
+        <v>134285</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M8" s="7">
-        <v>6</v>
-      </c>
-      <c r="N8" s="7">
-        <v>3931</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="P8" s="7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,102 +2304,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>266</v>
+        <v>114</v>
       </c>
       <c r="D9" s="7">
-        <v>177450</v>
+        <v>75669</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H9" s="7">
-        <v>254</v>
+        <v>99</v>
       </c>
       <c r="I9" s="7">
-        <v>167538</v>
+        <v>65453</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="M9" s="7">
-        <v>520</v>
+        <v>213</v>
       </c>
       <c r="N9" s="7">
-        <v>344988</v>
+        <v>141122</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>306</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>202193</v>
+        <v>1970</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
-        <v>267</v>
+        <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>180481</v>
+        <v>3533</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
-        <v>573</v>
+        <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>382674</v>
+        <v>5503</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2136,202 +2408,202 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D11" s="7">
-        <v>1972</v>
+        <v>4074</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
+        <v>4</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2649</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="7">
         <v>10</v>
       </c>
-      <c r="I11" s="7">
-        <v>6700</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="M11" s="7">
-        <v>13</v>
-      </c>
       <c r="N11" s="7">
-        <v>8672</v>
+        <v>6723</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>10</v>
       </c>
       <c r="D12" s="7">
-        <v>6765</v>
+        <v>6773</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="H12" s="7">
         <v>12</v>
       </c>
       <c r="I12" s="7">
-        <v>8409</v>
+        <v>8388</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="M12" s="7">
         <v>22</v>
       </c>
       <c r="N12" s="7">
-        <v>15175</v>
+        <v>15160</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>3373</v>
+        <v>2676</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I13" s="7">
-        <v>1990</v>
+        <v>7888</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="M13" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N13" s="7">
-        <v>5362</v>
+        <v>10564</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>359</v>
       </c>
       <c r="D14" s="7">
-        <v>1999</v>
+        <v>238263</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H14" s="7">
-        <v>6</v>
+        <v>341</v>
       </c>
       <c r="I14" s="7">
-        <v>3584</v>
+        <v>228166</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="M14" s="7">
-        <v>9</v>
+        <v>700</v>
       </c>
       <c r="N14" s="7">
-        <v>5582</v>
+        <v>466429</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2340,102 +2612,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>327</v>
+        <v>382</v>
       </c>
       <c r="D15" s="7">
-        <v>216302</v>
+        <v>253756</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H15" s="7">
-        <v>298</v>
+        <v>375</v>
       </c>
       <c r="I15" s="7">
-        <v>201163</v>
+        <v>250624</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="M15" s="7">
-        <v>625</v>
+        <v>757</v>
       </c>
       <c r="N15" s="7">
-        <v>417465</v>
+        <v>504380</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>375</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>250441</v>
+        <v>1352</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H16" s="7">
-        <v>348</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>234556</v>
+        <v>1931</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="M16" s="7">
-        <v>723</v>
+        <v>5</v>
       </c>
       <c r="N16" s="7">
-        <v>484997</v>
+        <v>3283</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2444,202 +2716,202 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>6039</v>
+        <v>2968</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="H17" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>6951</v>
+        <v>1382</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="M17" s="7">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="N17" s="7">
-        <v>12990</v>
+        <v>4351</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D18" s="7">
-        <v>8755</v>
+        <v>6039</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="H18" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I18" s="7">
-        <v>9868</v>
+        <v>5275</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="M18" s="7">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N18" s="7">
-        <v>18623</v>
+        <v>11314</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C19" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D19" s="7">
-        <v>6693</v>
+        <v>3863</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>128</v>
-      </c>
       <c r="G19" s="7" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
       </c>
       <c r="I19" s="7">
-        <v>4198</v>
+        <v>3765</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M19" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N19" s="7">
-        <v>10891</v>
+        <v>7628</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C20" s="7">
-        <v>9</v>
+        <v>186</v>
       </c>
       <c r="D20" s="7">
-        <v>5873</v>
+        <v>124397</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H20" s="7">
+        <v>165</v>
+      </c>
+      <c r="I20" s="7">
+        <v>110440</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M20" s="7">
+        <v>351</v>
+      </c>
+      <c r="N20" s="7">
+        <v>234838</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H20" s="7">
-        <v>9</v>
-      </c>
-      <c r="I20" s="7">
-        <v>6026</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="M20" s="7">
-        <v>18</v>
-      </c>
-      <c r="N20" s="7">
-        <v>11899</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2648,102 +2920,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>416</v>
+        <v>207</v>
       </c>
       <c r="D21" s="7">
-        <v>277802</v>
+        <v>138620</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H21" s="7">
-        <v>388</v>
+        <v>184</v>
       </c>
       <c r="I21" s="7">
-        <v>261599</v>
+        <v>122793</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="M21" s="7">
-        <v>804</v>
+        <v>391</v>
       </c>
       <c r="N21" s="7">
-        <v>539401</v>
+        <v>261413</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>135</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>928</v>
+        <v>8</v>
       </c>
       <c r="D22" s="7">
-        <v>617015</v>
+        <v>5200</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H22" s="7">
+        <v>8</v>
+      </c>
+      <c r="I22" s="7">
+        <v>5365</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="M22" s="7">
+        <v>16</v>
+      </c>
+      <c r="N22" s="7">
+        <v>10565</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="H22" s="7">
-        <v>852</v>
-      </c>
-      <c r="I22" s="7">
-        <v>571897</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="M22" s="7">
-        <v>1780</v>
-      </c>
-      <c r="N22" s="7">
-        <v>1188912</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2752,202 +3024,202 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D23" s="7">
-        <v>10003</v>
+        <v>3725</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H23" s="7">
+        <v>5</v>
+      </c>
+      <c r="I23" s="7">
+        <v>3464</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M23" s="7">
+        <v>11</v>
+      </c>
+      <c r="N23" s="7">
+        <v>7189</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="H23" s="7">
-        <v>24</v>
-      </c>
-      <c r="I23" s="7">
-        <v>16044</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="M23" s="7">
-        <v>39</v>
-      </c>
-      <c r="N23" s="7">
-        <v>26047</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D24" s="7">
-        <v>22581</v>
+        <v>7478</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H24" s="7">
+        <v>13</v>
+      </c>
+      <c r="I24" s="7">
+        <v>8493</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>24</v>
+      </c>
+      <c r="N24" s="7">
+        <v>15971</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="H24" s="7">
-        <v>33</v>
-      </c>
-      <c r="I24" s="7">
-        <v>22155</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="M24" s="7">
-        <v>66</v>
-      </c>
-      <c r="N24" s="7">
-        <v>44737</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C25" s="7">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D25" s="7">
-        <v>11371</v>
+        <v>3464</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H25" s="7">
+        <v>6</v>
+      </c>
+      <c r="I25" s="7">
+        <v>4391</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="M25" s="7">
+        <v>11</v>
+      </c>
+      <c r="N25" s="7">
+        <v>7855</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="H25" s="7">
-        <v>14</v>
-      </c>
-      <c r="I25" s="7">
-        <v>9376</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="M25" s="7">
-        <v>31</v>
-      </c>
-      <c r="N25" s="7">
-        <v>20746</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C26" s="7">
-        <v>16</v>
+        <v>276</v>
       </c>
       <c r="D26" s="7">
-        <v>10584</v>
+        <v>183642</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H26" s="7">
+        <v>250</v>
+      </c>
+      <c r="I26" s="7">
+        <v>169717</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>526</v>
+      </c>
+      <c r="N26" s="7">
+        <v>353361</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H26" s="7">
-        <v>17</v>
-      </c>
-      <c r="I26" s="7">
-        <v>10829</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="M26" s="7">
-        <v>33</v>
-      </c>
-      <c r="N26" s="7">
-        <v>21413</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2956,55 +3228,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>306</v>
+      </c>
+      <c r="D27" s="7">
+        <v>203509</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" s="7">
+        <v>282</v>
+      </c>
+      <c r="I27" s="7">
+        <v>191430</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M27" s="7">
+        <v>588</v>
+      </c>
+      <c r="N27" s="7">
+        <v>394940</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>16</v>
+      </c>
+      <c r="D28" s="7">
+        <v>10584</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H28" s="7">
+        <v>17</v>
+      </c>
+      <c r="I28" s="7">
+        <v>10829</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="M28" s="7">
+        <v>33</v>
+      </c>
+      <c r="N28" s="7">
+        <v>21413</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="7">
+        <v>17</v>
+      </c>
+      <c r="D29" s="7">
+        <v>11371</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H29" s="7">
+        <v>14</v>
+      </c>
+      <c r="I29" s="7">
+        <v>9376</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="M29" s="7">
+        <v>31</v>
+      </c>
+      <c r="N29" s="7">
+        <v>20746</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="7">
+        <v>33</v>
+      </c>
+      <c r="D30" s="7">
+        <v>22581</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H30" s="7">
+        <v>33</v>
+      </c>
+      <c r="I30" s="7">
+        <v>22155</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="M30" s="7">
+        <v>66</v>
+      </c>
+      <c r="N30" s="7">
+        <v>44737</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="7">
+        <v>15</v>
+      </c>
+      <c r="D31" s="7">
+        <v>10003</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H31" s="7">
+        <v>24</v>
+      </c>
+      <c r="I31" s="7">
+        <v>16044</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="M31" s="7">
+        <v>39</v>
+      </c>
+      <c r="N31" s="7">
+        <v>26047</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="7">
+        <v>928</v>
+      </c>
+      <c r="D32" s="7">
+        <v>617015</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H32" s="7">
+        <v>852</v>
+      </c>
+      <c r="I32" s="7">
+        <v>571897</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="M32" s="7">
+        <v>1780</v>
+      </c>
+      <c r="N32" s="7">
+        <v>1188911</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>1009</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>671554</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H33" s="7">
         <v>940</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>630300</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M33" s="7">
         <v>1949</v>
       </c>
-      <c r="N27" s="7">
-        <v>1301855</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>58</v>
+      <c r="N33" s="7">
+        <v>1301854</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3017,8 +3603,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99BFC7B-D52B-4F51-A057-C8D90E7582E8}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C769C581-6042-4D7D-8BAE-D249ACBDC492}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3034,7 +3620,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3135,49 +3721,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>241</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>169153</v>
+        <v>647</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="H4" s="7">
-        <v>239</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>157026</v>
+        <v>621</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="M4" s="7">
-        <v>480</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>326179</v>
+        <v>1268</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>188</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3186,202 +3772,202 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>4305</v>
+        <v>692</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>221</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>190</v>
+        <v>14</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>3018</v>
+        <v>1202</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="M5" s="7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="N5" s="7">
-        <v>7323</v>
+        <v>1894</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>128</v>
+        <v>226</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>1337</v>
+        <v>645</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>170</v>
+        <v>228</v>
       </c>
       <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M6" s="7">
         <v>1</v>
       </c>
-      <c r="I6" s="7">
-        <v>569</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="M6" s="7">
-        <v>3</v>
-      </c>
       <c r="N6" s="7">
-        <v>1906</v>
+        <v>645</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>48</v>
+        <v>230</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>198</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>78</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1439</v>
+        <v>652</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>199</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>1936</v>
+        <v>1800</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>95</v>
+        <v>234</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="M7" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>3375</v>
+        <v>2453</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>88</v>
+        <v>236</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>52</v>
+        <v>230</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>118</v>
       </c>
       <c r="D8" s="7">
-        <v>1665</v>
+        <v>82088</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>238</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="I8" s="7">
-        <v>1280</v>
+        <v>81956</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>152</v>
+        <v>240</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>243</v>
       </c>
       <c r="N8" s="7">
-        <v>2945</v>
+        <v>164044</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>169</v>
+        <v>243</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>95</v>
+        <v>244</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>207</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3390,102 +3976,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>122</v>
+      </c>
+      <c r="D9" s="7">
+        <v>84724</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="7">
+        <v>131</v>
+      </c>
+      <c r="I9" s="7">
+        <v>85580</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" s="7">
         <v>253</v>
       </c>
-      <c r="D9" s="7">
-        <v>177898</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="7">
-        <v>250</v>
-      </c>
-      <c r="I9" s="7">
-        <v>163829</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M9" s="7">
-        <v>503</v>
-      </c>
       <c r="N9" s="7">
-        <v>341727</v>
+        <v>170304</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>309</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>223059</v>
+        <v>4159</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>209</v>
+        <v>98</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
       <c r="H10" s="7">
-        <v>297</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>211853</v>
+        <v>659</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>211</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>212</v>
+        <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="M10" s="7">
-        <v>606</v>
+        <v>6</v>
       </c>
       <c r="N10" s="7">
-        <v>434912</v>
+        <v>4818</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>216</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,202 +4080,202 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>3718</v>
+        <v>1401</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>78</v>
+        <v>250</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>217</v>
+        <v>148</v>
       </c>
       <c r="H11" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>4402</v>
+        <v>2046</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="M11" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="N11" s="7">
-        <v>8120</v>
+        <v>3447</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>197</v>
+        <v>253</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>221</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>5019</v>
+        <v>2753</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>134</v>
+        <v>256</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="H12" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I12" s="7">
-        <v>8603</v>
+        <v>7876</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>224</v>
+        <v>71</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="M12" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N12" s="7">
-        <v>13622</v>
+        <v>10630</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>228</v>
+        <v>100</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>2104</v>
+        <v>5028</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>84</v>
+        <v>264</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>2849</v>
+        <v>2782</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>132</v>
+        <v>265</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="M13" s="7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N13" s="7">
-        <v>4954</v>
+        <v>7810</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C14" s="7">
-        <v>5</v>
+        <v>352</v>
       </c>
       <c r="D14" s="7">
-        <v>3919</v>
+        <v>252995</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>320</v>
       </c>
       <c r="I14" s="7">
-        <v>1321</v>
+        <v>221946</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>42</v>
+        <v>274</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>228</v>
+        <v>275</v>
       </c>
       <c r="M14" s="7">
-        <v>7</v>
+        <v>672</v>
       </c>
       <c r="N14" s="7">
-        <v>5240</v>
+        <v>474941</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>21</v>
+        <v>276</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3698,102 +4284,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>329</v>
+        <v>370</v>
       </c>
       <c r="D15" s="7">
-        <v>237819</v>
+        <v>266337</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H15" s="7">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="I15" s="7">
-        <v>229029</v>
+        <v>235309</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="M15" s="7">
-        <v>649</v>
+        <v>708</v>
       </c>
       <c r="N15" s="7">
-        <v>466848</v>
+        <v>501646</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>362</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>246646</v>
+        <v>3049</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="H16" s="7">
-        <v>312</v>
+        <v>6</v>
       </c>
       <c r="I16" s="7">
-        <v>219131</v>
+        <v>4161</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>246</v>
+        <v>79</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>247</v>
+        <v>282</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="M16" s="7">
-        <v>674</v>
+        <v>10</v>
       </c>
       <c r="N16" s="7">
-        <v>465778</v>
+        <v>7211</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3802,202 +4388,202 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>7706</v>
+        <v>2837</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>252</v>
+        <v>148</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>72</v>
+        <v>280</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="H17" s="7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>8868</v>
+        <v>3052</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>53</v>
+        <v>279</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>254</v>
+        <v>54</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="M17" s="7">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="N17" s="7">
-        <v>16574</v>
+        <v>5889</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>258</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D18" s="7">
-        <v>6472</v>
+        <v>4313</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>153</v>
+        <v>291</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>259</v>
+        <v>95</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="H18" s="7">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I18" s="7">
-        <v>10522</v>
+        <v>4777</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="M18" s="7">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="N18" s="7">
-        <v>16994</v>
+        <v>9090</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>265</v>
+        <v>97</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C19" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D19" s="7">
-        <v>2034</v>
+        <v>4584</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="H19" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I19" s="7">
-        <v>6807</v>
+        <v>6410</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>100</v>
+        <v>302</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>46</v>
+        <v>303</v>
       </c>
       <c r="M19" s="7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N19" s="7">
-        <v>8840</v>
+        <v>10994</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>166</v>
+        <v>304</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>90</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C20" s="7">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="D20" s="7">
-        <v>4780</v>
+        <v>141639</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>228</v>
+        <v>306</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>98</v>
+        <v>307</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="H20" s="7">
-        <v>13</v>
+        <v>196</v>
       </c>
       <c r="I20" s="7">
-        <v>8903</v>
+        <v>138033</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="M20" s="7">
-        <v>20</v>
+        <v>401</v>
       </c>
       <c r="N20" s="7">
-        <v>13683</v>
+        <v>279673</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,102 +4592,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>394</v>
+        <v>225</v>
       </c>
       <c r="D21" s="7">
-        <v>267638</v>
+        <v>156422</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H21" s="7">
-        <v>362</v>
+        <v>222</v>
       </c>
       <c r="I21" s="7">
-        <v>254231</v>
+        <v>156434</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="M21" s="7">
-        <v>756</v>
+        <v>447</v>
       </c>
       <c r="N21" s="7">
-        <v>521869</v>
+        <v>312856</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>135</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>912</v>
+        <v>4</v>
       </c>
       <c r="D22" s="7">
-        <v>638858</v>
+        <v>2508</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="H22" s="7">
-        <v>848</v>
+        <v>9</v>
       </c>
       <c r="I22" s="7">
-        <v>588010</v>
+        <v>6063</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="M22" s="7">
-        <v>1760</v>
+        <v>13</v>
       </c>
       <c r="N22" s="7">
-        <v>1226868</v>
+        <v>8571</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>285</v>
+        <v>53</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,202 +4696,202 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>15728</v>
+        <v>647</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>136</v>
+        <v>321</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>163</v>
+        <v>231</v>
       </c>
       <c r="H23" s="7">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="I23" s="7">
-        <v>16289</v>
+        <v>5292</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>237</v>
+        <v>323</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>83</v>
+        <v>324</v>
       </c>
       <c r="M23" s="7">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="N23" s="7">
-        <v>32017</v>
+        <v>5939</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>118</v>
+        <v>181</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>97</v>
+        <v>251</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D24" s="7">
-        <v>12828</v>
+        <v>5117</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>225</v>
+        <v>296</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="H24" s="7">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="I24" s="7">
-        <v>19694</v>
+        <v>7040</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>292</v>
+        <v>202</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>114</v>
+        <v>303</v>
       </c>
       <c r="M24" s="7">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="N24" s="7">
-        <v>32522</v>
+        <v>12157</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>293</v>
+        <v>193</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>294</v>
+        <v>220</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C25" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="7">
-        <v>5577</v>
+        <v>5464</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>98</v>
+        <v>328</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="H25" s="7">
+        <v>7</v>
+      </c>
+      <c r="I25" s="7">
+        <v>5297</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="M25" s="7">
         <v>16</v>
       </c>
-      <c r="I25" s="7">
-        <v>11592</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="M25" s="7">
-        <v>24</v>
-      </c>
       <c r="N25" s="7">
-        <v>17169</v>
+        <v>10761</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>299</v>
+        <v>328</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C26" s="7">
-        <v>14</v>
+        <v>237</v>
       </c>
       <c r="D26" s="7">
-        <v>10364</v>
+        <v>162136</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>154</v>
+        <v>337</v>
       </c>
       <c r="H26" s="7">
-        <v>17</v>
+        <v>207</v>
       </c>
       <c r="I26" s="7">
-        <v>11505</v>
+        <v>146074</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>97</v>
+        <v>338</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="M26" s="7">
-        <v>31</v>
+        <v>444</v>
       </c>
       <c r="N26" s="7">
-        <v>21869</v>
+        <v>308209</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>177</v>
+        <v>341</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4314,55 +4900,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>259</v>
+      </c>
+      <c r="D27" s="7">
+        <v>175872</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" s="7">
+        <v>241</v>
+      </c>
+      <c r="I27" s="7">
+        <v>169766</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M27" s="7">
+        <v>500</v>
+      </c>
+      <c r="N27" s="7">
+        <v>345637</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>14</v>
+      </c>
+      <c r="D28" s="7">
+        <v>10364</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="H28" s="7">
+        <v>17</v>
+      </c>
+      <c r="I28" s="7">
+        <v>11505</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="M28" s="7">
+        <v>31</v>
+      </c>
+      <c r="N28" s="7">
+        <v>21869</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="7">
+        <v>8</v>
+      </c>
+      <c r="D29" s="7">
+        <v>5577</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H29" s="7">
+        <v>16</v>
+      </c>
+      <c r="I29" s="7">
+        <v>11592</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="M29" s="7">
+        <v>24</v>
+      </c>
+      <c r="N29" s="7">
+        <v>17169</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="7">
+        <v>19</v>
+      </c>
+      <c r="D30" s="7">
+        <v>12828</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H30" s="7">
+        <v>28</v>
+      </c>
+      <c r="I30" s="7">
+        <v>19694</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="M30" s="7">
+        <v>47</v>
+      </c>
+      <c r="N30" s="7">
+        <v>32522</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="7">
+        <v>23</v>
+      </c>
+      <c r="D31" s="7">
+        <v>15728</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H31" s="7">
+        <v>23</v>
+      </c>
+      <c r="I31" s="7">
+        <v>16289</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="M31" s="7">
+        <v>46</v>
+      </c>
+      <c r="N31" s="7">
+        <v>32017</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="7">
+        <v>912</v>
+      </c>
+      <c r="D32" s="7">
+        <v>638858</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="H32" s="7">
+        <v>848</v>
+      </c>
+      <c r="I32" s="7">
+        <v>588010</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="M32" s="7">
+        <v>1760</v>
+      </c>
+      <c r="N32" s="7">
+        <v>1226868</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>976</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>683355</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H33" s="7">
         <v>932</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>647089</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M33" s="7">
         <v>1908</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>1330444</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>58</v>
+      <c r="O33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4375,8 +5275,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D2C934-7511-4C19-8CC0-4C2215FE6F80}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A14B733-29B4-46B4-9322-55974E5B05BE}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4392,7 +5292,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>308</v>
+        <v>370</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4493,49 +5393,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>149940</v>
+        <v>1273</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>309</v>
+        <v>185</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>310</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>311</v>
+        <v>122</v>
       </c>
       <c r="H4" s="7">
-        <v>227</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>139086</v>
+        <v>664</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>312</v>
+        <v>371</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>314</v>
+        <v>372</v>
       </c>
       <c r="M4" s="7">
-        <v>454</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>289025</v>
+        <v>1938</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>315</v>
+        <v>373</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>316</v>
+        <v>374</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>317</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4544,202 +5444,202 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>6270</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>318</v>
+        <v>14</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>319</v>
+        <v>15</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>320</v>
+        <v>36</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>3338</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>14</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>152</v>
+        <v>15</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>321</v>
+        <v>186</v>
       </c>
       <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="7">
-        <v>9608</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="P5" s="7" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>253</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>2924</v>
+        <v>1461</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>322</v>
+        <v>155</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>323</v>
+        <v>14</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>324</v>
+        <v>376</v>
       </c>
       <c r="H6" s="7">
+        <v>3</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1697</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="M6" s="7">
         <v>5</v>
       </c>
-      <c r="I6" s="7">
-        <v>3213</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="M6" s="7">
-        <v>9</v>
-      </c>
       <c r="N6" s="7">
-        <v>6137</v>
+        <v>3158</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>156</v>
+        <v>379</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>3356</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>42</v>
+        <v>380</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>328</v>
+        <v>381</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>727</v>
+        <v>2181</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>329</v>
+        <v>382</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>330</v>
+        <v>383</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N7" s="7">
-        <v>727</v>
+        <v>5537</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>331</v>
+        <v>232</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>384</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>332</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="D8" s="7">
-        <v>1273</v>
+        <v>69333</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>328</v>
+        <v>386</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>387</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>330</v>
+        <v>388</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="I8" s="7">
-        <v>664</v>
+        <v>75069</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>235</v>
+        <v>389</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>390</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>54</v>
+        <v>391</v>
       </c>
       <c r="M8" s="7">
-        <v>3</v>
+        <v>226</v>
       </c>
       <c r="N8" s="7">
-        <v>1938</v>
+        <v>144403</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>92</v>
+        <v>392</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>333</v>
+        <v>393</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>166</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4748,102 +5648,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>114</v>
+      </c>
+      <c r="D9" s="7">
+        <v>75424</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="7">
+        <v>128</v>
+      </c>
+      <c r="I9" s="7">
+        <v>79611</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" s="7">
         <v>242</v>
       </c>
-      <c r="D9" s="7">
-        <v>160407</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="7">
-        <v>239</v>
-      </c>
-      <c r="I9" s="7">
-        <v>147029</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M9" s="7">
-        <v>481</v>
-      </c>
       <c r="N9" s="7">
-        <v>307436</v>
+        <v>155036</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>329</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>227065</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>334</v>
+        <v>14</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>335</v>
+        <v>395</v>
       </c>
       <c r="H10" s="7">
-        <v>328</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>215167</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>336</v>
+        <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>337</v>
+        <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>338</v>
+        <v>396</v>
       </c>
       <c r="M10" s="7">
-        <v>657</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>442231</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>339</v>
+        <v>14</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>251</v>
+        <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>340</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4852,202 +5752,202 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="7">
-        <v>9647</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>341</v>
-      </c>
       <c r="F11" s="7" t="s">
-        <v>242</v>
+        <v>15</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="H11" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>6052</v>
+        <v>1940</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>343</v>
+        <v>397</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>344</v>
+        <v>398</v>
       </c>
       <c r="M11" s="7">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="N11" s="7">
-        <v>15699</v>
+        <v>1940</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>345</v>
+        <v>399</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>124</v>
+        <v>400</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>346</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>5313</v>
+        <v>3583</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>112</v>
+        <v>315</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>35</v>
+        <v>250</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>347</v>
+        <v>22</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
       </c>
       <c r="I12" s="7">
-        <v>4530</v>
+        <v>4819</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>348</v>
+        <v>401</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>349</v>
+        <v>95</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>277</v>
+        <v>144</v>
       </c>
       <c r="M12" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N12" s="7">
-        <v>9844</v>
+        <v>8402</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>74</v>
+        <v>255</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>350</v>
+        <v>402</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>126</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7">
-        <v>1542</v>
+        <v>10673</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>92</v>
+        <v>355</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>404</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>139</v>
+        <v>405</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>1777</v>
+        <v>4739</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>351</v>
+        <v>167</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>352</v>
+        <v>198</v>
       </c>
       <c r="M13" s="7">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="N13" s="7">
-        <v>3319</v>
+        <v>15412</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>353</v>
+        <v>406</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>354</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>349</v>
       </c>
       <c r="D14" s="7">
-        <v>1297</v>
+        <v>236494</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>355</v>
+        <v>407</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>42</v>
+        <v>408</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>356</v>
+        <v>409</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>307</v>
       </c>
       <c r="I14" s="7">
-        <v>1190</v>
+        <v>195116</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>357</v>
+        <v>410</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>42</v>
+        <v>411</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>171</v>
+        <v>275</v>
       </c>
       <c r="M14" s="7">
-        <v>4</v>
+        <v>656</v>
       </c>
       <c r="N14" s="7">
-        <v>2487</v>
+        <v>431611</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>355</v>
+        <v>412</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>358</v>
+        <v>413</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>140</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5056,102 +5956,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="D15" s="7">
-        <v>244864</v>
+        <v>250750</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H15" s="7">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="I15" s="7">
-        <v>228716</v>
+        <v>206614</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="M15" s="7">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="N15" s="7">
-        <v>473579</v>
+        <v>457365</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>341</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>250974</v>
+        <v>1997</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>359</v>
+        <v>121</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>360</v>
+        <v>316</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
       <c r="H16" s="7">
-        <v>323</v>
+        <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>230493</v>
+        <v>2573</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>362</v>
+        <v>416</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>363</v>
+        <v>316</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>364</v>
+        <v>196</v>
       </c>
       <c r="M16" s="7">
-        <v>664</v>
+        <v>7</v>
       </c>
       <c r="N16" s="7">
-        <v>481467</v>
+        <v>4570</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>63</v>
+        <v>373</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>365</v>
+        <v>417</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>366</v>
+        <v>418</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,202 +6060,202 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>13749</v>
+        <v>2104</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>367</v>
+        <v>419</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>368</v>
+        <v>266</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>369</v>
+        <v>120</v>
       </c>
       <c r="H17" s="7">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>15459</v>
+        <v>564</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>371</v>
+        <v>14</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>372</v>
+        <v>421</v>
       </c>
       <c r="M17" s="7">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>29208</v>
+        <v>2668</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>373</v>
+        <v>217</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>374</v>
+        <v>422</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>375</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" s="7">
-        <v>5922</v>
+        <v>4830</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>376</v>
+        <v>423</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>377</v>
+        <v>347</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="H18" s="7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I18" s="7">
-        <v>8114</v>
+        <v>3486</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>425</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>379</v>
+        <v>253</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>39</v>
+        <v>426</v>
       </c>
       <c r="M18" s="7">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="N18" s="7">
-        <v>14036</v>
+        <v>8316</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>275</v>
+        <v>67</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>380</v>
+        <v>427</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>381</v>
+        <v>428</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C19" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D19" s="7">
-        <v>2193</v>
+        <v>7092</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>325</v>
+        <v>429</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>382</v>
+        <v>262</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>383</v>
+        <v>430</v>
       </c>
       <c r="H19" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I19" s="7">
-        <v>2091</v>
+        <v>4773</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>325</v>
+        <v>431</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>331</v>
+        <v>432</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>433</v>
       </c>
       <c r="M19" s="7">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="N19" s="7">
-        <v>4284</v>
+        <v>11864</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>325</v>
+        <v>434</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>384</v>
+        <v>279</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>385</v>
+        <v>435</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>234</v>
       </c>
       <c r="D20" s="7">
-        <v>1413</v>
+        <v>168411</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>357</v>
+        <v>436</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>42</v>
+        <v>437</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>319</v>
+        <v>438</v>
       </c>
       <c r="H20" s="7">
-        <v>9</v>
+        <v>244</v>
       </c>
       <c r="I20" s="7">
-        <v>6250</v>
+        <v>169301</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>84</v>
+        <v>439</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>304</v>
+        <v>440</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>386</v>
+        <v>441</v>
       </c>
       <c r="M20" s="7">
-        <v>11</v>
+        <v>478</v>
       </c>
       <c r="N20" s="7">
-        <v>7662</v>
+        <v>337711</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>24</v>
+        <v>212</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>45</v>
+        <v>442</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>43</v>
+        <v>443</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5364,102 +6264,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>371</v>
+        <v>257</v>
       </c>
       <c r="D21" s="7">
-        <v>274251</v>
+        <v>184433</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H21" s="7">
-        <v>368</v>
+        <v>261</v>
       </c>
       <c r="I21" s="7">
-        <v>262406</v>
+        <v>180697</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="M21" s="7">
-        <v>739</v>
+        <v>518</v>
       </c>
       <c r="N21" s="7">
-        <v>536657</v>
+        <v>365130</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>135</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>897</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>627978</v>
+        <v>713</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>388</v>
+        <v>14</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>389</v>
+        <v>260</v>
       </c>
       <c r="H22" s="7">
-        <v>878</v>
+        <v>7</v>
       </c>
       <c r="I22" s="7">
-        <v>584744</v>
+        <v>4866</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>390</v>
+        <v>346</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>391</v>
+        <v>444</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>392</v>
+        <v>445</v>
       </c>
       <c r="M22" s="7">
-        <v>1775</v>
+        <v>8</v>
       </c>
       <c r="N22" s="7">
-        <v>1212723</v>
+        <v>5579</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>393</v>
+        <v>183</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>394</v>
+        <v>357</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5468,202 +6368,202 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>29667</v>
+        <v>1631</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>229</v>
+        <v>152</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>395</v>
+        <v>14</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>396</v>
+        <v>322</v>
       </c>
       <c r="H23" s="7">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="I23" s="7">
-        <v>24849</v>
+        <v>2091</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>397</v>
+        <v>352</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>176</v>
+        <v>374</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>398</v>
+        <v>446</v>
       </c>
       <c r="M23" s="7">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="N23" s="7">
-        <v>54516</v>
+        <v>3721</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>261</v>
+        <v>56</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>399</v>
+        <v>447</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>400</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D24" s="7">
-        <v>14159</v>
+        <v>4284</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>74</v>
+        <v>448</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>350</v>
+        <v>199</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>401</v>
+        <v>449</v>
       </c>
       <c r="H24" s="7">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="I24" s="7">
-        <v>15858</v>
+        <v>5857</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>175</v>
+        <v>450</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>72</v>
+        <v>329</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>402</v>
+        <v>451</v>
       </c>
       <c r="M24" s="7">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="N24" s="7">
-        <v>30017</v>
+        <v>10141</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>237</v>
+        <v>453</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>288</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C25" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D25" s="7">
-        <v>3735</v>
+        <v>8546</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>404</v>
+        <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>178</v>
+        <v>455</v>
       </c>
       <c r="H25" s="7">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="I25" s="7">
-        <v>4595</v>
+        <v>13156</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>405</v>
+        <v>456</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>70</v>
+        <v>457</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>24</v>
+        <v>458</v>
       </c>
       <c r="M25" s="7">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="N25" s="7">
-        <v>8330</v>
+        <v>21702</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>92</v>
+        <v>459</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>296</v>
+        <v>460</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>289</v>
+        <v>461</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C26" s="7">
-        <v>6</v>
+        <v>209</v>
       </c>
       <c r="D26" s="7">
-        <v>3983</v>
+        <v>153740</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>406</v>
+        <v>462</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>407</v>
+        <v>463</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>132</v>
+        <v>464</v>
       </c>
       <c r="H26" s="7">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="I26" s="7">
-        <v>8103</v>
+        <v>145258</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>27</v>
+        <v>465</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>408</v>
+        <v>466</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>409</v>
+        <v>467</v>
       </c>
       <c r="M26" s="7">
-        <v>18</v>
+        <v>415</v>
       </c>
       <c r="N26" s="7">
-        <v>12087</v>
+        <v>298999</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>94</v>
+        <v>468</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>48</v>
+        <v>469</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>116</v>
+        <v>470</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5672,55 +6572,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>228</v>
+      </c>
+      <c r="D27" s="7">
+        <v>168914</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" s="7">
+        <v>243</v>
+      </c>
+      <c r="I27" s="7">
+        <v>171227</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M27" s="7">
+        <v>471</v>
+      </c>
+      <c r="N27" s="7">
+        <v>340142</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>6</v>
+      </c>
+      <c r="D28" s="7">
+        <v>3983</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="H28" s="7">
+        <v>12</v>
+      </c>
+      <c r="I28" s="7">
+        <v>8103</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="M28" s="7">
+        <v>18</v>
+      </c>
+      <c r="N28" s="7">
+        <v>12087</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="7">
+        <v>5</v>
+      </c>
+      <c r="D29" s="7">
+        <v>3735</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H29" s="7">
+        <v>7</v>
+      </c>
+      <c r="I29" s="7">
+        <v>4595</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="M29" s="7">
+        <v>12</v>
+      </c>
+      <c r="N29" s="7">
+        <v>8330</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="7">
+        <v>20</v>
+      </c>
+      <c r="D30" s="7">
+        <v>14159</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H30" s="7">
+        <v>23</v>
+      </c>
+      <c r="I30" s="7">
+        <v>15858</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="M30" s="7">
+        <v>43</v>
+      </c>
+      <c r="N30" s="7">
+        <v>30017</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="7">
+        <v>40</v>
+      </c>
+      <c r="D31" s="7">
+        <v>29667</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H31" s="7">
+        <v>37</v>
+      </c>
+      <c r="I31" s="7">
+        <v>24849</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="M31" s="7">
+        <v>77</v>
+      </c>
+      <c r="N31" s="7">
+        <v>54516</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="7">
+        <v>897</v>
+      </c>
+      <c r="D32" s="7">
+        <v>627978</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H32" s="7">
+        <v>878</v>
+      </c>
+      <c r="I32" s="7">
+        <v>584744</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="M32" s="7">
+        <v>1775</v>
+      </c>
+      <c r="N32" s="7">
+        <v>1212723</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>968</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>679522</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H33" s="7">
         <v>957</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>638150</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M33" s="7">
         <v>1925</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>1317672</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>58</v>
+      <c r="O33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP3108-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP3108-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD59FB26-4352-4957-9115-E2AE6DEE8580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06C8AD62-7D28-4D88-89A4-BB0AE2EA7263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{51FA16B9-5B8F-45D7-B87E-C9313D9CD24C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{002E73BA-7E32-4B32-9508-D241F7D0AFBD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="472">
   <si>
     <t>Menores según la frecuencia de tomar leche en 2007 (Tasa respuesta: 92,63%)</t>
   </si>
@@ -79,7 +79,7 @@
     <t>0,85%</t>
   </si>
   <si>
-    <t>7,28%</t>
+    <t>6,51%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -97,1429 +97,1363 @@
     <t>0,46%</t>
   </si>
   <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3 o 4 veces a la semana</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>5 o 6 veces a la semana</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>Todos los dias</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia de tomar leche en 2012 (Tasa respuesta: 90,9%)</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia de tomar leche en 2016 (Tasa respuesta: 90,55%)</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
     <t>4,43%</t>
   </si>
   <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3 o 4 veces a la semana</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>5 o 6 veces a la semana</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>Todos los dias</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
   </si>
   <si>
     <t>2,77%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia de tomar leche en 2012 (Tasa respuesta: 90,9%)</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia de tomar leche en 2015 (Tasa respuesta: 90,55%)</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
+    <t>5,26%</t>
   </si>
   <si>
     <t>4,14%</t>
   </si>
   <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
+    <t>5,12%</t>
   </si>
   <si>
     <t>92,41%</t>
   </si>
   <si>
-    <t>90,5%</t>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
   </si>
   <si>
     <t>91,63%</t>
   </si>
   <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
   </si>
   <si>
     <t>92,04%</t>
   </si>
   <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
+    <t>90,72%</t>
   </si>
 </sst>
 </file>
@@ -1931,7 +1865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDEFF5D9-E554-47F6-A11A-5EEB692DC210}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55149D48-B32F-4D71-8B08-4810BCFB60FF}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2689,10 +2623,10 @@
         <v>97</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -2701,10 +2635,10 @@
         <v>3283</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>101</v>
@@ -2725,10 +2659,10 @@
         <v>102</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -2737,13 +2671,13 @@
         <v>1382</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -2752,13 +2686,13 @@
         <v>4351</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,10 +2725,10 @@
         <v>112</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M18" s="7">
         <v>17</v>
@@ -2803,13 +2737,13 @@
         <v>11314</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2824,13 +2758,13 @@
         <v>3863</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -2839,10 +2773,10 @@
         <v>3765</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>122</v>
@@ -2979,13 +2913,13 @@
         <v>5200</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -2994,13 +2928,13 @@
         <v>5365</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>139</v>
+        <v>55</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M22" s="7">
         <v>16</v>
@@ -3009,13 +2943,13 @@
         <v>10565</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,13 +2964,13 @@
         <v>3725</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -3045,13 +2979,13 @@
         <v>3464</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
@@ -3060,13 +2994,13 @@
         <v>7189</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3081,13 +3015,13 @@
         <v>7478</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H24" s="7">
         <v>13</v>
@@ -3096,13 +3030,13 @@
         <v>8493</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M24" s="7">
         <v>24</v>
@@ -3111,13 +3045,13 @@
         <v>15971</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3132,13 +3066,13 @@
         <v>3464</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>161</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -3147,13 +3081,13 @@
         <v>4391</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>164</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -3162,13 +3096,13 @@
         <v>7855</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3183,13 +3117,13 @@
         <v>183642</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>171</v>
+        <v>90</v>
       </c>
       <c r="H26" s="7">
         <v>250</v>
@@ -3198,13 +3132,13 @@
         <v>169717</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M26" s="7">
         <v>526</v>
@@ -3213,13 +3147,13 @@
         <v>353361</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,13 +3221,13 @@
         <v>10584</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H28" s="7">
         <v>17</v>
@@ -3302,13 +3236,13 @@
         <v>10829</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>95</v>
+        <v>177</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="M28" s="7">
         <v>33</v>
@@ -3317,13 +3251,13 @@
         <v>21413</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>104</v>
+        <v>179</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3338,13 +3272,13 @@
         <v>11371</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>121</v>
+        <v>182</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>68</v>
+        <v>183</v>
       </c>
       <c r="H29" s="7">
         <v>14</v>
@@ -3353,13 +3287,13 @@
         <v>9376</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>187</v>
+        <v>31</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M29" s="7">
         <v>31</v>
@@ -3368,13 +3302,13 @@
         <v>20746</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,13 +3323,13 @@
         <v>22581</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>191</v>
+        <v>61</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H30" s="7">
         <v>33</v>
@@ -3404,13 +3338,13 @@
         <v>22155</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M30" s="7">
         <v>66</v>
@@ -3419,13 +3353,13 @@
         <v>44737</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,13 +3374,13 @@
         <v>10003</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>115</v>
+        <v>195</v>
       </c>
       <c r="H31" s="7">
         <v>24</v>
@@ -3455,13 +3389,13 @@
         <v>16044</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M31" s="7">
         <v>39</v>
@@ -3470,13 +3404,13 @@
         <v>26047</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3491,13 +3425,13 @@
         <v>617015</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H32" s="7">
         <v>852</v>
@@ -3506,28 +3440,28 @@
         <v>571897</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="M32" s="7">
         <v>1780</v>
       </c>
       <c r="N32" s="7">
-        <v>1188911</v>
+        <v>1188912</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>211</v>
+        <v>132</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>212</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3569,7 +3503,7 @@
         <v>1949</v>
       </c>
       <c r="N33" s="7">
-        <v>1301854</v>
+        <v>1301855</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>48</v>
@@ -3583,7 +3517,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -3603,7 +3537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C769C581-6042-4D7D-8BAE-D249ACBDC492}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E919D11B-7658-4112-A725-FE82F46B31CE}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3620,7 +3554,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3727,13 +3661,13 @@
         <v>647</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3742,13 +3676,13 @@
         <v>621</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3757,13 +3691,13 @@
         <v>1268</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3778,13 +3712,13 @@
         <v>692</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -3793,13 +3727,13 @@
         <v>1202</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -3808,13 +3742,13 @@
         <v>1894</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3829,13 +3763,13 @@
         <v>645</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3850,7 +3784,7 @@
         <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>229</v>
+        <v>124</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -3859,13 +3793,13 @@
         <v>645</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,13 +3814,13 @@
         <v>652</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>107</v>
+        <v>225</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -3895,13 +3829,13 @@
         <v>1800</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -3910,13 +3844,13 @@
         <v>2453</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3931,13 +3865,13 @@
         <v>82088</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="H8" s="7">
         <v>125</v>
@@ -3946,13 +3880,13 @@
         <v>81956</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="M8" s="7">
         <v>243</v>
@@ -3961,13 +3895,13 @@
         <v>164044</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,13 +3969,13 @@
         <v>4159</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -4056,7 +3990,7 @@
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -4065,13 +3999,13 @@
         <v>4818</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>179</v>
+        <v>242</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,13 +4020,13 @@
         <v>1401</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>148</v>
+        <v>246</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -4101,13 +4035,13 @@
         <v>2046</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -4116,13 +4050,13 @@
         <v>3447</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>255</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4137,13 +4071,13 @@
         <v>2753</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H12" s="7">
         <v>11</v>
@@ -4155,10 +4089,10 @@
         <v>71</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M12" s="7">
         <v>15</v>
@@ -4167,13 +4101,13 @@
         <v>10630</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>100</v>
+        <v>257</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4188,13 +4122,13 @@
         <v>5028</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>263</v>
+        <v>21</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -4203,13 +4137,13 @@
         <v>2782</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>267</v>
+        <v>55</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -4218,13 +4152,13 @@
         <v>7810</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>269</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4239,13 +4173,13 @@
         <v>252995</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H14" s="7">
         <v>320</v>
@@ -4254,13 +4188,13 @@
         <v>221946</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="M14" s="7">
         <v>672</v>
@@ -4269,13 +4203,13 @@
         <v>474941</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4343,13 +4277,13 @@
         <v>3049</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>280</v>
+        <v>57</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -4358,13 +4292,13 @@
         <v>4161</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>282</v>
+        <v>119</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -4373,13 +4307,13 @@
         <v>7211</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>284</v>
+        <v>52</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4394,13 +4328,13 @@
         <v>2837</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -4409,13 +4343,13 @@
         <v>3052</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -4424,13 +4358,13 @@
         <v>5889</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>289</v>
+        <v>72</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>290</v>
+        <v>24</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>193</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4445,13 +4379,13 @@
         <v>4313</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>95</v>
+        <v>282</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>292</v>
+        <v>255</v>
       </c>
       <c r="H18" s="7">
         <v>7</v>
@@ -4460,13 +4394,13 @@
         <v>4777</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="M18" s="7">
         <v>13</v>
@@ -4475,13 +4409,13 @@
         <v>9090</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4496,13 +4430,13 @@
         <v>4584</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -4511,13 +4445,13 @@
         <v>6410</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>302</v>
+        <v>72</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="M19" s="7">
         <v>15</v>
@@ -4526,13 +4460,13 @@
         <v>10994</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>82</v>
+        <v>292</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4547,13 +4481,13 @@
         <v>141639</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="H20" s="7">
         <v>196</v>
@@ -4562,13 +4496,13 @@
         <v>138033</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="M20" s="7">
         <v>401</v>
@@ -4577,13 +4511,13 @@
         <v>279673</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4651,13 +4585,13 @@
         <v>2508</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="H22" s="7">
         <v>9</v>
@@ -4666,13 +4600,13 @@
         <v>6063</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -4681,13 +4615,13 @@
         <v>8571</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>53</v>
+        <v>310</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4702,13 +4636,13 @@
         <v>647</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -4717,13 +4651,13 @@
         <v>5292</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>323</v>
+        <v>124</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -4732,13 +4666,13 @@
         <v>5939</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>251</v>
+        <v>315</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4753,13 +4687,13 @@
         <v>5117</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>235</v>
+        <v>317</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -4768,13 +4702,13 @@
         <v>7040</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>202</v>
+        <v>319</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
@@ -4783,13 +4717,13 @@
         <v>12157</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>220</v>
+        <v>292</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4804,13 +4738,13 @@
         <v>5464</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>329</v>
+        <v>17</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -4819,13 +4753,13 @@
         <v>5297</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>332</v>
+        <v>153</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -4834,13 +4768,13 @@
         <v>10761</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4855,13 +4789,13 @@
         <v>162136</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>336</v>
+        <v>204</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="H26" s="7">
         <v>207</v>
@@ -4870,13 +4804,13 @@
         <v>146074</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="M26" s="7">
         <v>444</v>
@@ -4885,13 +4819,13 @@
         <v>308209</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4959,13 +4893,13 @@
         <v>10364</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>124</v>
+        <v>335</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>31</v>
+        <v>336</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>344</v>
+        <v>155</v>
       </c>
       <c r="H28" s="7">
         <v>17</v>
@@ -4974,13 +4908,13 @@
         <v>11505</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="M28" s="7">
         <v>31</v>
@@ -4989,13 +4923,13 @@
         <v>21869</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>284</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5010,13 +4944,13 @@
         <v>5577</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>348</v>
+        <v>243</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>124</v>
+        <v>174</v>
       </c>
       <c r="H29" s="7">
         <v>16</v>
@@ -5025,10 +4959,10 @@
         <v>11592</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>350</v>
+        <v>251</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>123</v>
@@ -5040,13 +4974,13 @@
         <v>17169</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>351</v>
+        <v>119</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5061,13 +4995,13 @@
         <v>12828</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>289</v>
+        <v>72</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>352</v>
+        <v>219</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="H30" s="7">
         <v>28</v>
@@ -5076,13 +5010,13 @@
         <v>19694</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>82</v>
+        <v>342</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>355</v>
+        <v>193</v>
       </c>
       <c r="M30" s="7">
         <v>47</v>
@@ -5091,13 +5025,13 @@
         <v>32522</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>356</v>
+        <v>195</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5112,13 +5046,13 @@
         <v>15728</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>284</v>
+        <v>52</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>203</v>
+        <v>124</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>227</v>
+        <v>344</v>
       </c>
       <c r="H31" s="7">
         <v>23</v>
@@ -5127,13 +5061,13 @@
         <v>16289</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>33</v>
+        <v>178</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>359</v>
+        <v>197</v>
       </c>
       <c r="M31" s="7">
         <v>46</v>
@@ -5142,13 +5076,13 @@
         <v>32017</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>188</v>
+        <v>67</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>252</v>
+        <v>346</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5163,13 +5097,13 @@
         <v>638858</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="H32" s="7">
         <v>848</v>
@@ -5178,13 +5112,13 @@
         <v>588010</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="M32" s="7">
         <v>1760</v>
@@ -5193,13 +5127,13 @@
         <v>1226868</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>367</v>
+        <v>265</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5255,7 +5189,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -5275,7 +5209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A14B733-29B4-46B4-9322-55974E5B05BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECFF771-527A-4F17-B6E7-EE818C3F00C1}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5292,7 +5226,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5399,7 +5333,7 @@
         <v>1273</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>14</v>
@@ -5414,13 +5348,13 @@
         <v>664</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>371</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -5429,13 +5363,13 @@
         <v>1938</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>373</v>
+        <v>257</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5471,7 +5405,7 @@
         <v>15</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5486,7 +5420,7 @@
         <v>15</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>164</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5501,13 +5435,13 @@
         <v>1461</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>155</v>
+        <v>244</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>376</v>
+        <v>122</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -5516,13 +5450,13 @@
         <v>1697</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>161</v>
+        <v>360</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -5531,13 +5465,13 @@
         <v>3158</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>109</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5552,13 +5486,13 @@
         <v>3356</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>345</v>
+        <v>176</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -5567,13 +5501,13 @@
         <v>2181</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>382</v>
+        <v>340</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>107</v>
+        <v>225</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -5582,13 +5516,13 @@
         <v>5537</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5603,13 +5537,13 @@
         <v>69333</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="H8" s="7">
         <v>121</v>
@@ -5618,13 +5552,13 @@
         <v>75069</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>389</v>
+        <v>93</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="M8" s="7">
         <v>226</v>
@@ -5633,13 +5567,13 @@
         <v>144403</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5713,7 +5647,7 @@
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5728,7 +5662,7 @@
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5764,7 +5698,7 @@
         <v>15</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -5773,13 +5707,13 @@
         <v>1940</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>397</v>
+        <v>282</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -5788,13 +5722,13 @@
         <v>1940</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5809,13 +5743,13 @@
         <v>3583</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>22</v>
+        <v>382</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -5824,13 +5758,13 @@
         <v>4819</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>401</v>
+        <v>187</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>95</v>
+        <v>242</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>144</v>
+        <v>383</v>
       </c>
       <c r="M12" s="7">
         <v>12</v>
@@ -5839,13 +5773,13 @@
         <v>8402</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>403</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5860,13 +5794,13 @@
         <v>10673</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>355</v>
+        <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>404</v>
+        <v>309</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -5875,13 +5809,13 @@
         <v>4739</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>167</v>
+        <v>62</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>198</v>
+        <v>386</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -5890,13 +5824,13 @@
         <v>15412</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>406</v>
+        <v>258</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>82</v>
+        <v>387</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>195</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5911,13 +5845,13 @@
         <v>236494</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="H14" s="7">
         <v>307</v>
@@ -5926,13 +5860,13 @@
         <v>195116</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>411</v>
+        <v>46</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>275</v>
+        <v>393</v>
       </c>
       <c r="M14" s="7">
         <v>656</v>
@@ -5941,13 +5875,13 @@
         <v>431611</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6015,13 +5949,13 @@
         <v>1997</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>121</v>
+        <v>397</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>415</v>
+        <v>285</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -6030,13 +5964,13 @@
         <v>2573</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>416</v>
+        <v>310</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>196</v>
+        <v>398</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -6045,13 +5979,13 @@
         <v>4570</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>373</v>
+        <v>257</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>417</v>
+        <v>245</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>418</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6066,13 +6000,13 @@
         <v>2104</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>419</v>
+        <v>241</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>266</v>
+        <v>14</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -6081,13 +6015,13 @@
         <v>564</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>420</v>
+        <v>262</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -6096,13 +6030,13 @@
         <v>2668</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>258</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6117,13 +6051,13 @@
         <v>4830</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -6132,13 +6066,13 @@
         <v>3486</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>425</v>
+        <v>75</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -6147,13 +6081,13 @@
         <v>8316</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>67</v>
+        <v>180</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>428</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6168,13 +6102,13 @@
         <v>7092</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>429</v>
+        <v>406</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>430</v>
+        <v>407</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -6183,13 +6117,13 @@
         <v>4773</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>432</v>
+        <v>397</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
       <c r="M19" s="7">
         <v>17</v>
@@ -6198,13 +6132,13 @@
         <v>11864</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>434</v>
+        <v>96</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>279</v>
+        <v>198</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>435</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6219,13 +6153,13 @@
         <v>168411</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>438</v>
+        <v>392</v>
       </c>
       <c r="H20" s="7">
         <v>244</v>
@@ -6234,13 +6168,13 @@
         <v>169301</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>439</v>
+        <v>413</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>440</v>
+        <v>414</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>441</v>
+        <v>415</v>
       </c>
       <c r="M20" s="7">
         <v>478</v>
@@ -6249,13 +6183,13 @@
         <v>337711</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>212</v>
+        <v>416</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>442</v>
+        <v>417</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>443</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6323,13 +6257,13 @@
         <v>713</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -6338,13 +6272,13 @@
         <v>4866</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>346</v>
+        <v>419</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>444</v>
+        <v>137</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>445</v>
+        <v>275</v>
       </c>
       <c r="M22" s="7">
         <v>8</v>
@@ -6353,13 +6287,13 @@
         <v>5579</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>217</v>
+        <v>161</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>357</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6374,13 +6308,13 @@
         <v>1631</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -6389,13 +6323,13 @@
         <v>2091</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>352</v>
+        <v>421</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -6407,7 +6341,7 @@
         <v>56</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>447</v>
+        <v>243</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>423</v>
@@ -6425,13 +6359,13 @@
         <v>4284</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>448</v>
+        <v>155</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>199</v>
+        <v>24</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -6440,13 +6374,13 @@
         <v>5857</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>329</v>
+        <v>186</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="M24" s="7">
         <v>14</v>
@@ -6455,13 +6389,13 @@
         <v>10141</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>452</v>
+        <v>427</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6476,13 +6410,13 @@
         <v>8546</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>455</v>
+        <v>430</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -6491,13 +6425,13 @@
         <v>13156</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="M25" s="7">
         <v>29</v>
@@ -6506,13 +6440,13 @@
         <v>21702</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>459</v>
+        <v>434</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6527,13 +6461,13 @@
         <v>153740</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="H26" s="7">
         <v>206</v>
@@ -6542,13 +6476,13 @@
         <v>145258</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="M26" s="7">
         <v>415</v>
@@ -6557,13 +6491,13 @@
         <v>298999</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6631,13 +6565,13 @@
         <v>3983</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>472</v>
+        <v>119</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
@@ -6646,13 +6580,13 @@
         <v>8103</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>248</v>
+        <v>447</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>161</v>
+        <v>227</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="M28" s="7">
         <v>18</v>
@@ -6661,13 +6595,13 @@
         <v>12087</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>282</v>
+        <v>449</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>474</v>
+        <v>450</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6682,13 +6616,13 @@
         <v>3735</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>474</v>
+        <v>451</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>422</v>
+        <v>452</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -6697,13 +6631,13 @@
         <v>4595</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>475</v>
+        <v>146</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>420</v>
+        <v>220</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>186</v>
+        <v>324</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -6712,13 +6646,13 @@
         <v>8330</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>476</v>
+        <v>143</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>374</v>
+        <v>304</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>477</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6733,13 +6667,13 @@
         <v>14159</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>52</v>
+        <v>453</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>444</v>
+        <v>83</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>71</v>
+        <v>322</v>
       </c>
       <c r="H30" s="7">
         <v>23</v>
@@ -6748,13 +6682,13 @@
         <v>15858</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>257</v>
+        <v>454</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>478</v>
+        <v>455</v>
       </c>
       <c r="M30" s="7">
         <v>43</v>
@@ -6763,13 +6697,13 @@
         <v>30017</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>67</v>
+        <v>180</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>479</v>
+        <v>367</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>74</v>
+        <v>322</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6784,13 +6718,13 @@
         <v>29667</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>259</v>
+        <v>458</v>
       </c>
       <c r="H31" s="7">
         <v>37</v>
@@ -6799,13 +6733,13 @@
         <v>24849</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>482</v>
+        <v>459</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>483</v>
+        <v>460</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>484</v>
+        <v>461</v>
       </c>
       <c r="M31" s="7">
         <v>77</v>
@@ -6814,13 +6748,13 @@
         <v>54516</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>485</v>
+        <v>343</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6835,13 +6769,13 @@
         <v>627978</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>486</v>
+        <v>464</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>487</v>
+        <v>465</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>90</v>
+        <v>466</v>
       </c>
       <c r="H32" s="7">
         <v>878</v>
@@ -6850,13 +6784,13 @@
         <v>584744</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>488</v>
+        <v>467</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>489</v>
+        <v>468</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="M32" s="7">
         <v>1775</v>
@@ -6865,13 +6799,13 @@
         <v>1212723</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>492</v>
+        <v>471</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>493</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6927,7 +6861,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP3108-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP3108-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06C8AD62-7D28-4D88-89A4-BB0AE2EA7263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFFDF0CA-B54E-4ECE-A3B1-5494A5C7E40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{002E73BA-7E32-4B32-9508-D241F7D0AFBD}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{737CD16F-7C80-4E66-B532-B3AB9969448D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="499">
   <si>
     <t>Menores según la frecuencia de tomar leche en 2007 (Tasa respuesta: 92,63%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,1387 +73,1468 @@
     <t>Menos de 1 vez semana</t>
   </si>
   <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
     <t>2,72%</t>
   </si>
   <si>
     <t>0,85%</t>
   </si>
   <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3 o 4 veces a la semana</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>5 o 6 veces a la semana</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>Todos los dias</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
     <t>6,51%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>0,8%</t>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
   </si>
   <si>
     <t>3,78%</t>
   </si>
   <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3 o 4 veces a la semana</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia de tomar leche en 2012 (Tasa respuesta: 90,9%)</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia de tomar leche en 2016 (Tasa respuesta: 90,55%)</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
   </si>
   <si>
     <t>4,4%</t>
   </si>
   <si>
-    <t>5 o 6 veces a la semana</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>Todos los dias</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
   </si>
   <si>
     <t>1,93%</t>
   </si>
   <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
   </si>
   <si>
     <t>5,15%</t>
   </si>
   <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
   </si>
   <si>
     <t>2,02%</t>
   </si>
   <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia de tomar leche en 2012 (Tasa respuesta: 90,9%)</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia de tomar leche en 2016 (Tasa respuesta: 90,55%)</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
     <t>3,59%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
+    <t>5,29%</t>
   </si>
   <si>
     <t>4,37%</t>
   </si>
   <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
+    <t>5,95%</t>
   </si>
   <si>
     <t>4,14%</t>
   </si>
   <si>
-    <t>5,12%</t>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
   </si>
   <si>
     <t>92,41%</t>
   </si>
   <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
   </si>
   <si>
     <t>92,04%</t>
   </si>
   <si>
-    <t>90,72%</t>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
   </si>
 </sst>
 </file>
@@ -1865,7 +1946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55149D48-B32F-4D71-8B08-4810BCFB60FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E42A97-F976-4921-A754-08F90E4635D3}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1983,10 +2064,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>2062</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1998,10 +2079,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>2062</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2034,31 +2115,31 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>603</v>
+        <v>1880</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>1880</v>
+        <v>603</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>25</v>
@@ -2085,34 +2166,34 @@
         <v>29</v>
       </c>
       <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7">
         <v>3</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>2292</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -2142,13 +2223,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2157,13 +2238,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2172,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>37</v>
@@ -2187,10 +2268,10 @@
         <v>38</v>
       </c>
       <c r="C8" s="7">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D8" s="7">
-        <v>70712</v>
+        <v>63573</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>39</v>
@@ -2202,10 +2283,10 @@
         <v>41</v>
       </c>
       <c r="H8" s="7">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="I8" s="7">
-        <v>63573</v>
+        <v>70712</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>42</v>
@@ -2238,25 +2319,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>99</v>
+      </c>
+      <c r="D9" s="7">
+        <v>65453</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="7">
         <v>114</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>75669</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="7">
-        <v>99</v>
-      </c>
-      <c r="I9" s="7">
-        <v>65453</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>48</v>
@@ -2291,10 +2372,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>1970</v>
+        <v>3533</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>50</v>
@@ -2306,10 +2387,10 @@
         <v>52</v>
       </c>
       <c r="H10" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>3533</v>
+        <v>1970</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>53</v>
@@ -2342,10 +2423,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>4074</v>
+        <v>2649</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>59</v>
@@ -2357,10 +2438,10 @@
         <v>61</v>
       </c>
       <c r="H11" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I11" s="7">
-        <v>2649</v>
+        <v>4074</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>62</v>
@@ -2381,10 +2462,10 @@
         <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2393,34 +2474,34 @@
         <v>29</v>
       </c>
       <c r="C12" s="7">
+        <v>12</v>
+      </c>
+      <c r="D12" s="7">
+        <v>8388</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="7">
         <v>10</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>6773</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="7">
-        <v>12</v>
-      </c>
-      <c r="I12" s="7">
-        <v>8388</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M12" s="7">
         <v>22</v>
@@ -2429,13 +2510,13 @@
         <v>15160</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2444,34 +2525,34 @@
         <v>35</v>
       </c>
       <c r="C13" s="7">
+        <v>12</v>
+      </c>
+      <c r="D13" s="7">
+        <v>7888</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="7">
         <v>4</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>2676</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H13" s="7">
-        <v>12</v>
-      </c>
-      <c r="I13" s="7">
-        <v>7888</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -2480,13 +2561,13 @@
         <v>10564</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2495,34 +2576,34 @@
         <v>38</v>
       </c>
       <c r="C14" s="7">
+        <v>341</v>
+      </c>
+      <c r="D14" s="7">
+        <v>228166</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="7">
         <v>359</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>238263</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H14" s="7">
-        <v>341</v>
-      </c>
-      <c r="I14" s="7">
-        <v>228166</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M14" s="7">
         <v>700</v>
@@ -2531,13 +2612,13 @@
         <v>466429</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2546,25 +2627,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>375</v>
+      </c>
+      <c r="D15" s="7">
+        <v>250624</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="7">
         <v>382</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>253756</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="7">
-        <v>375</v>
-      </c>
-      <c r="I15" s="7">
-        <v>250624</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>48</v>
@@ -2593,40 +2674,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1931</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="7">
         <v>2</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>1352</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H16" s="7">
-        <v>3</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1931</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -2635,13 +2716,13 @@
         <v>3283</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2650,34 +2731,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1382</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" s="7">
         <v>4</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>2968</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="H17" s="7">
-        <v>2</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1382</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -2686,13 +2767,13 @@
         <v>4351</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2701,34 +2782,34 @@
         <v>29</v>
       </c>
       <c r="C18" s="7">
+        <v>8</v>
+      </c>
+      <c r="D18" s="7">
+        <v>5275</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H18" s="7">
         <v>9</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>6039</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="J18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H18" s="7">
-        <v>8</v>
-      </c>
-      <c r="I18" s="7">
-        <v>5275</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M18" s="7">
         <v>17</v>
@@ -2737,13 +2818,13 @@
         <v>11314</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2755,31 +2836,31 @@
         <v>6</v>
       </c>
       <c r="D19" s="7">
-        <v>3863</v>
+        <v>3765</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
       </c>
       <c r="I19" s="7">
-        <v>3765</v>
+        <v>3863</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -2788,13 +2869,13 @@
         <v>7628</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2803,34 +2884,34 @@
         <v>38</v>
       </c>
       <c r="C20" s="7">
+        <v>165</v>
+      </c>
+      <c r="D20" s="7">
+        <v>110440</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" s="7">
         <v>186</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>124397</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H20" s="7">
-        <v>165</v>
-      </c>
-      <c r="I20" s="7">
-        <v>110440</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>351</v>
@@ -2839,13 +2920,13 @@
         <v>234838</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2854,25 +2935,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>184</v>
+      </c>
+      <c r="D21" s="7">
+        <v>122793</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="7">
         <v>207</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>138620</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21" s="7">
-        <v>184</v>
-      </c>
-      <c r="I21" s="7">
-        <v>122793</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>48</v>
@@ -2901,7 +2982,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2910,13 +2991,13 @@
         <v>8</v>
       </c>
       <c r="D22" s="7">
-        <v>5200</v>
+        <v>5365</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>136</v>
@@ -2925,13 +3006,13 @@
         <v>8</v>
       </c>
       <c r="I22" s="7">
-        <v>5365</v>
+        <v>5200</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>138</v>
@@ -2946,10 +3027,10 @@
         <v>139</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2958,34 +3039,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>5</v>
+      </c>
+      <c r="D23" s="7">
+        <v>3464</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H23" s="7">
         <v>6</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>3725</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="J23" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H23" s="7">
-        <v>5</v>
-      </c>
-      <c r="I23" s="7">
-        <v>3464</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
@@ -2994,13 +3075,13 @@
         <v>7189</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>149</v>
+        <v>15</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>150</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3009,34 +3090,34 @@
         <v>29</v>
       </c>
       <c r="C24" s="7">
+        <v>13</v>
+      </c>
+      <c r="D24" s="7">
+        <v>8493</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H24" s="7">
         <v>11</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>7478</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H24" s="7">
-        <v>13</v>
-      </c>
-      <c r="I24" s="7">
-        <v>8493</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="M24" s="7">
         <v>24</v>
@@ -3045,13 +3126,13 @@
         <v>15971</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3060,34 +3141,34 @@
         <v>35</v>
       </c>
       <c r="C25" s="7">
+        <v>6</v>
+      </c>
+      <c r="D25" s="7">
+        <v>4391</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H25" s="7">
         <v>5</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>3464</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="J25" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="H25" s="7">
-        <v>6</v>
-      </c>
-      <c r="I25" s="7">
-        <v>4391</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>163</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>104</v>
+        <v>158</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -3096,13 +3177,13 @@
         <v>7855</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>165</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,34 +3192,34 @@
         <v>38</v>
       </c>
       <c r="C26" s="7">
+        <v>250</v>
+      </c>
+      <c r="D26" s="7">
+        <v>169717</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H26" s="7">
         <v>276</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>183642</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H26" s="7">
-        <v>250</v>
-      </c>
-      <c r="I26" s="7">
-        <v>169717</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="M26" s="7">
         <v>526</v>
@@ -3147,13 +3228,13 @@
         <v>353361</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3162,25 +3243,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>282</v>
+      </c>
+      <c r="D27" s="7">
+        <v>191430</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" s="7">
         <v>306</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>203509</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H27" s="7">
-        <v>282</v>
-      </c>
-      <c r="I27" s="7">
-        <v>191430</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>48</v>
@@ -3215,34 +3296,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>17</v>
+      </c>
+      <c r="D28" s="7">
+        <v>10829</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H28" s="7">
         <v>16</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>10584</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="H28" s="7">
-        <v>17</v>
-      </c>
-      <c r="I28" s="7">
-        <v>10829</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>177</v>
+        <v>120</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="M28" s="7">
         <v>33</v>
@@ -3251,13 +3332,13 @@
         <v>21413</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,34 +3347,34 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
+        <v>14</v>
+      </c>
+      <c r="D29" s="7">
+        <v>9376</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H29" s="7">
         <v>17</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>11371</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="J29" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="H29" s="7">
-        <v>14</v>
-      </c>
-      <c r="I29" s="7">
-        <v>9376</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M29" s="7">
         <v>31</v>
@@ -3302,13 +3383,13 @@
         <v>20746</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>105</v>
+        <v>183</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3320,31 +3401,31 @@
         <v>33</v>
       </c>
       <c r="D30" s="7">
-        <v>22581</v>
+        <v>22155</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>61</v>
+        <v>185</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>52</v>
+        <v>186</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H30" s="7">
         <v>33</v>
       </c>
       <c r="I30" s="7">
-        <v>22155</v>
+        <v>22581</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M30" s="7">
         <v>66</v>
@@ -3353,13 +3434,13 @@
         <v>44737</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,34 +3449,34 @@
         <v>35</v>
       </c>
       <c r="C31" s="7">
+        <v>24</v>
+      </c>
+      <c r="D31" s="7">
+        <v>16044</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H31" s="7">
         <v>15</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>10003</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="J31" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="H31" s="7">
-        <v>24</v>
-      </c>
-      <c r="I31" s="7">
-        <v>16044</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M31" s="7">
         <v>39</v>
@@ -3404,13 +3485,13 @@
         <v>26047</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>198</v>
+        <v>58</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,34 +3500,34 @@
         <v>38</v>
       </c>
       <c r="C32" s="7">
+        <v>852</v>
+      </c>
+      <c r="D32" s="7">
+        <v>571897</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H32" s="7">
         <v>928</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>617015</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="F32" s="7" t="s">
+      <c r="J32" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="H32" s="7">
-        <v>852</v>
-      </c>
-      <c r="I32" s="7">
-        <v>571897</v>
-      </c>
-      <c r="J32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M32" s="7">
         <v>1780</v>
@@ -3455,13 +3536,13 @@
         <v>1188912</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,25 +3551,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>940</v>
+      </c>
+      <c r="D33" s="7">
+        <v>630300</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H33" s="7">
         <v>1009</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>671554</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H33" s="7">
-        <v>940</v>
-      </c>
-      <c r="I33" s="7">
-        <v>630300</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>48</v>
@@ -3537,7 +3618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E919D11B-7658-4112-A725-FE82F46B31CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26AD79D1-B1E5-4E0E-8DDE-CFEAFE2284C9}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3658,13 +3739,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>647</v>
+        <v>621</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>209</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>210</v>
@@ -3673,16 +3754,16 @@
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>621</v>
+        <v>647</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3691,13 +3772,13 @@
         <v>1268</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,34 +3787,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1202</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H5" s="7">
         <v>1</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>692</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1202</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -3742,13 +3823,13 @@
         <v>1894</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,34 +3838,34 @@
         <v>29</v>
       </c>
       <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H6" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>645</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="J6" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -3796,7 +3877,7 @@
         <v>223</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>224</v>
@@ -3808,31 +3889,31 @@
         <v>35</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>652</v>
+        <v>1800</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>226</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>1800</v>
+        <v>652</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>227</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>228</v>
@@ -3844,13 +3925,13 @@
         <v>2453</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>223</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3859,34 +3940,34 @@
         <v>38</v>
       </c>
       <c r="C8" s="7">
+        <v>125</v>
+      </c>
+      <c r="D8" s="7">
+        <v>81956</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H8" s="7">
         <v>118</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>82088</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="H8" s="7">
-        <v>125</v>
-      </c>
-      <c r="I8" s="7">
-        <v>81956</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M8" s="7">
         <v>243</v>
@@ -3895,13 +3976,13 @@
         <v>164044</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3910,25 +3991,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>131</v>
+      </c>
+      <c r="D9" s="7">
+        <v>85580</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="7">
         <v>122</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>84724</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="7">
-        <v>131</v>
-      </c>
-      <c r="I9" s="7">
-        <v>85580</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>48</v>
@@ -3963,34 +4044,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>659</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="7">
         <v>5</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>4159</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>659</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="K10" s="7" t="s">
-        <v>14</v>
+        <v>241</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -3999,7 +4080,7 @@
         <v>4818</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>242</v>
+        <v>120</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>243</v>
@@ -4017,13 +4098,13 @@
         <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>1401</v>
+        <v>2046</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>245</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>246</v>
@@ -4032,13 +4113,13 @@
         <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>2046</v>
+        <v>1401</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>247</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>248</v>
@@ -4053,10 +4134,10 @@
         <v>249</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4065,34 +4146,34 @@
         <v>29</v>
       </c>
       <c r="C12" s="7">
+        <v>11</v>
+      </c>
+      <c r="D12" s="7">
+        <v>7876</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H12" s="7">
         <v>4</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>2753</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="H12" s="7">
-        <v>11</v>
-      </c>
-      <c r="I12" s="7">
-        <v>7876</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="K12" s="7" t="s">
-        <v>254</v>
+        <v>80</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>255</v>
+        <v>192</v>
       </c>
       <c r="M12" s="7">
         <v>15</v>
@@ -4101,13 +4182,13 @@
         <v>10630</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4116,34 +4197,34 @@
         <v>35</v>
       </c>
       <c r="C13" s="7">
+        <v>4</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2782</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H13" s="7">
         <v>7</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>5028</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="H13" s="7">
-        <v>4</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2782</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -4152,13 +4233,13 @@
         <v>7810</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>263</v>
+        <v>154</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4167,34 +4248,34 @@
         <v>38</v>
       </c>
       <c r="C14" s="7">
+        <v>320</v>
+      </c>
+      <c r="D14" s="7">
+        <v>221946</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H14" s="7">
         <v>352</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>252995</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="H14" s="7">
-        <v>320</v>
-      </c>
-      <c r="I14" s="7">
-        <v>221946</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M14" s="7">
         <v>672</v>
@@ -4203,13 +4284,13 @@
         <v>474941</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,25 +4299,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>338</v>
+      </c>
+      <c r="D15" s="7">
+        <v>235309</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="7">
         <v>370</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>266337</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="7">
-        <v>338</v>
-      </c>
-      <c r="I15" s="7">
-        <v>235309</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>48</v>
@@ -4265,40 +4346,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>6</v>
+      </c>
+      <c r="D16" s="7">
+        <v>4161</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H16" s="7">
         <v>4</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>3049</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="H16" s="7">
-        <v>6</v>
-      </c>
-      <c r="I16" s="7">
-        <v>4161</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -4307,13 +4388,13 @@
         <v>7211</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>52</v>
+        <v>213</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>261</v>
+        <v>218</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4325,31 +4406,31 @@
         <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>2837</v>
+        <v>3052</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>277</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>3052</v>
+        <v>2837</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>273</v>
+        <v>68</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>277</v>
+        <v>27</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -4358,13 +4439,13 @@
         <v>5889</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>72</v>
+        <v>276</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>24</v>
+        <v>277</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,34 +4454,34 @@
         <v>29</v>
       </c>
       <c r="C18" s="7">
+        <v>7</v>
+      </c>
+      <c r="D18" s="7">
+        <v>4777</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H18" s="7">
         <v>6</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>4313</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="J18" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="H18" s="7">
-        <v>7</v>
-      </c>
-      <c r="I18" s="7">
-        <v>4777</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M18" s="7">
         <v>13</v>
@@ -4409,13 +4490,13 @@
         <v>9090</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4424,34 +4505,34 @@
         <v>35</v>
       </c>
       <c r="C19" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D19" s="7">
-        <v>4584</v>
+        <v>6410</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>286</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>6</v>
+      </c>
+      <c r="I19" s="7">
+        <v>4584</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="H19" s="7">
-        <v>9</v>
-      </c>
-      <c r="I19" s="7">
-        <v>6410</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="M19" s="7">
         <v>15</v>
@@ -4460,13 +4541,13 @@
         <v>10994</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4475,34 +4556,34 @@
         <v>38</v>
       </c>
       <c r="C20" s="7">
+        <v>196</v>
+      </c>
+      <c r="D20" s="7">
+        <v>138033</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H20" s="7">
         <v>205</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>141639</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="H20" s="7">
-        <v>196</v>
-      </c>
-      <c r="I20" s="7">
-        <v>138033</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="M20" s="7">
         <v>401</v>
@@ -4511,13 +4592,13 @@
         <v>279673</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4526,25 +4607,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>222</v>
+      </c>
+      <c r="D21" s="7">
+        <v>156434</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="7">
         <v>225</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>156422</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21" s="7">
-        <v>222</v>
-      </c>
-      <c r="I21" s="7">
-        <v>156434</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>48</v>
@@ -4573,40 +4654,40 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>9</v>
+      </c>
+      <c r="D22" s="7">
+        <v>6063</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H22" s="7">
         <v>4</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>2508</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="H22" s="7">
-        <v>9</v>
-      </c>
-      <c r="I22" s="7">
-        <v>6063</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -4615,13 +4696,13 @@
         <v>8571</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>309</v>
+        <v>186</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4630,34 +4711,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>8</v>
+      </c>
+      <c r="D23" s="7">
+        <v>5292</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H23" s="7">
         <v>1</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>647</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="J23" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="H23" s="7">
-        <v>8</v>
-      </c>
-      <c r="I23" s="7">
-        <v>5292</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -4666,13 +4747,13 @@
         <v>5939</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4681,34 +4762,34 @@
         <v>29</v>
       </c>
       <c r="C24" s="7">
+        <v>10</v>
+      </c>
+      <c r="D24" s="7">
+        <v>7040</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="H24" s="7">
         <v>8</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>5117</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="J24" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="H24" s="7">
-        <v>10</v>
-      </c>
-      <c r="I24" s="7">
-        <v>7040</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
@@ -4717,13 +4798,13 @@
         <v>12157</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4732,34 +4813,34 @@
         <v>35</v>
       </c>
       <c r="C25" s="7">
+        <v>7</v>
+      </c>
+      <c r="D25" s="7">
+        <v>5297</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H25" s="7">
         <v>9</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>5464</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="J25" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="H25" s="7">
-        <v>7</v>
-      </c>
-      <c r="I25" s="7">
-        <v>5297</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -4768,13 +4849,13 @@
         <v>10761</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4783,34 +4864,34 @@
         <v>38</v>
       </c>
       <c r="C26" s="7">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="D26" s="7">
-        <v>162136</v>
+        <v>146074</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>328</v>
       </c>
       <c r="H26" s="7">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="I26" s="7">
-        <v>146074</v>
+        <v>162136</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="M26" s="7">
         <v>444</v>
@@ -4819,13 +4900,13 @@
         <v>308209</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,25 +4915,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>241</v>
+      </c>
+      <c r="D27" s="7">
+        <v>169766</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" s="7">
         <v>259</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>175872</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H27" s="7">
-        <v>241</v>
-      </c>
-      <c r="I27" s="7">
-        <v>169766</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>48</v>
@@ -4887,34 +4968,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>17</v>
+      </c>
+      <c r="D28" s="7">
+        <v>11505</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="H28" s="7">
         <v>14</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>10364</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="F28" s="7" t="s">
+      <c r="J28" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="G28" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="H28" s="7">
-        <v>17</v>
-      </c>
-      <c r="I28" s="7">
-        <v>11505</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>325</v>
-      </c>
       <c r="K28" s="7" t="s">
-        <v>62</v>
+        <v>337</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>337</v>
+        <v>192</v>
       </c>
       <c r="M28" s="7">
         <v>31</v>
@@ -4923,13 +5004,13 @@
         <v>21869</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4938,34 +5019,34 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
+        <v>16</v>
+      </c>
+      <c r="D29" s="7">
+        <v>11592</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H29" s="7">
         <v>8</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>5577</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="H29" s="7">
-        <v>16</v>
-      </c>
-      <c r="I29" s="7">
-        <v>11592</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>339</v>
+        <v>216</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>123</v>
+        <v>342</v>
       </c>
       <c r="M29" s="7">
         <v>24</v>
@@ -4974,13 +5055,13 @@
         <v>17169</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>119</v>
+        <v>280</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>31</v>
+        <v>245</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,34 +5070,34 @@
         <v>29</v>
       </c>
       <c r="C30" s="7">
+        <v>28</v>
+      </c>
+      <c r="D30" s="7">
+        <v>19694</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="H30" s="7">
         <v>19</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>12828</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="H30" s="7">
-        <v>28</v>
-      </c>
-      <c r="I30" s="7">
-        <v>19694</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>341</v>
+        <v>276</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>342</v>
+        <v>117</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>193</v>
+        <v>345</v>
       </c>
       <c r="M30" s="7">
         <v>47</v>
@@ -5025,13 +5106,13 @@
         <v>32522</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>195</v>
+        <v>346</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>343</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5043,31 +5124,31 @@
         <v>23</v>
       </c>
       <c r="D31" s="7">
-        <v>15728</v>
+        <v>16289</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>124</v>
+        <v>348</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="H31" s="7">
         <v>23</v>
       </c>
       <c r="I31" s="7">
-        <v>16289</v>
+        <v>15728</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>345</v>
+        <v>213</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>178</v>
+        <v>350</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M31" s="7">
         <v>46</v>
@@ -5076,13 +5157,13 @@
         <v>32017</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>67</v>
+        <v>351</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5091,34 +5172,34 @@
         <v>38</v>
       </c>
       <c r="C32" s="7">
+        <v>848</v>
+      </c>
+      <c r="D32" s="7">
+        <v>588010</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="H32" s="7">
         <v>912</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>638858</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="H32" s="7">
-        <v>848</v>
-      </c>
-      <c r="I32" s="7">
-        <v>588010</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="M32" s="7">
         <v>1760</v>
@@ -5127,13 +5208,13 @@
         <v>1226868</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>265</v>
+        <v>359</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5142,25 +5223,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>932</v>
+      </c>
+      <c r="D33" s="7">
+        <v>647089</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H33" s="7">
         <v>976</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>683355</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H33" s="7">
-        <v>932</v>
-      </c>
-      <c r="I33" s="7">
-        <v>647089</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>48</v>
@@ -5209,7 +5290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECFF771-527A-4F17-B6E7-EE818C3F00C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA27171-EC69-4F94-B57C-E6C876E1C663}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5226,7 +5307,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5327,34 +5408,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>664</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="H4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>1273</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>664</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -5363,13 +5444,13 @@
         <v>1938</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>357</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>358</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,13 +5465,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>36</v>
+        <v>177</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5399,13 +5480,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>36</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5414,13 +5495,13 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>315</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,34 +5510,34 @@
         <v>29</v>
       </c>
       <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1697</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H6" s="7">
         <v>2</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>1461</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H6" s="7">
-        <v>3</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1697</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>359</v>
+        <v>250</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>360</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -5465,13 +5546,13 @@
         <v>3158</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>213</v>
+        <v>372</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5480,34 +5561,34 @@
         <v>35</v>
       </c>
       <c r="C7" s="7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2181</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="H7" s="7">
         <v>5</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>3356</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="H7" s="7">
-        <v>3</v>
-      </c>
-      <c r="I7" s="7">
-        <v>2181</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>225</v>
+        <v>156</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -5516,13 +5597,13 @@
         <v>5537</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>367</v>
+        <v>156</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5531,49 +5612,49 @@
         <v>38</v>
       </c>
       <c r="C8" s="7">
+        <v>121</v>
+      </c>
+      <c r="D8" s="7">
+        <v>75069</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="H8" s="7">
         <v>105</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>69333</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="H8" s="7">
-        <v>121</v>
-      </c>
-      <c r="I8" s="7">
-        <v>75069</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>93</v>
+        <v>383</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="M8" s="7">
         <v>226</v>
       </c>
       <c r="N8" s="7">
-        <v>144403</v>
+        <v>144402</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5582,25 +5663,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>128</v>
+      </c>
+      <c r="D9" s="7">
+        <v>79611</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="7">
         <v>114</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>75424</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="7">
-        <v>128</v>
-      </c>
-      <c r="I9" s="7">
-        <v>79611</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>48</v>
@@ -5615,7 +5696,7 @@
         <v>242</v>
       </c>
       <c r="N9" s="7">
-        <v>155036</v>
+        <v>155035</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>48</v>
@@ -5641,13 +5722,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5656,13 +5737,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5671,13 +5752,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5686,34 +5767,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>3</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1940</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>0</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="H11" s="7">
-        <v>3</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1940</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>282</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -5722,13 +5803,13 @@
         <v>1940</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>257</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5737,34 +5818,34 @@
         <v>29</v>
       </c>
       <c r="C12" s="7">
+        <v>7</v>
+      </c>
+      <c r="D12" s="7">
+        <v>4819</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="H12" s="7">
         <v>5</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>3583</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="H12" s="7">
-        <v>7</v>
-      </c>
-      <c r="I12" s="7">
-        <v>4819</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>187</v>
+        <v>304</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>242</v>
+        <v>94</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="M12" s="7">
         <v>12</v>
@@ -5773,13 +5854,13 @@
         <v>8402</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>246</v>
+        <v>398</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>341</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,34 +5869,34 @@
         <v>35</v>
       </c>
       <c r="C13" s="7">
+        <v>8</v>
+      </c>
+      <c r="D13" s="7">
+        <v>4739</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="H13" s="7">
         <v>15</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>10673</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="H13" s="7">
-        <v>8</v>
-      </c>
-      <c r="I13" s="7">
-        <v>4739</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>162</v>
+        <v>402</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>403</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -5824,13 +5905,13 @@
         <v>15412</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>258</v>
+        <v>405</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>387</v>
+        <v>184</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5839,34 +5920,34 @@
         <v>38</v>
       </c>
       <c r="C14" s="7">
+        <v>307</v>
+      </c>
+      <c r="D14" s="7">
+        <v>195117</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="H14" s="7">
         <v>349</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>236494</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="H14" s="7">
-        <v>307</v>
-      </c>
-      <c r="I14" s="7">
-        <v>195116</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>46</v>
+        <v>411</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="M14" s="7">
         <v>656</v>
@@ -5875,13 +5956,13 @@
         <v>431611</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5890,25 +5971,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>325</v>
+      </c>
+      <c r="D15" s="7">
+        <v>206615</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="7">
         <v>369</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>250750</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="7">
-        <v>325</v>
-      </c>
-      <c r="I15" s="7">
-        <v>206614</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>48</v>
@@ -5937,40 +6018,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>4</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2573</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="H16" s="7">
         <v>3</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>1997</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="H16" s="7">
-        <v>4</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2573</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -5979,13 +6060,13 @@
         <v>4570</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>257</v>
+        <v>365</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>245</v>
+        <v>390</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5994,34 +6075,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>564</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="7">
         <v>3</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>2104</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>564</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>262</v>
+        <v>419</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>14</v>
+        <v>420</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -6030,13 +6111,13 @@
         <v>2668</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>401</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6045,34 +6126,34 @@
         <v>29</v>
       </c>
       <c r="C18" s="7">
+        <v>5</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3486</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="H18" s="7">
         <v>7</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>4830</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="H18" s="7">
-        <v>5</v>
-      </c>
-      <c r="I18" s="7">
-        <v>3486</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>75</v>
+        <v>427</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>249</v>
+        <v>428</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -6081,13 +6162,13 @@
         <v>8316</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>180</v>
+        <v>430</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>210</v>
+        <v>432</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6096,34 +6177,34 @@
         <v>35</v>
       </c>
       <c r="C19" s="7">
+        <v>7</v>
+      </c>
+      <c r="D19" s="7">
+        <v>4773</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="H19" s="7">
         <v>10</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>7092</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="H19" s="7">
-        <v>7</v>
-      </c>
-      <c r="I19" s="7">
-        <v>4773</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>397</v>
+        <v>13</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>409</v>
+        <v>436</v>
       </c>
       <c r="M19" s="7">
         <v>17</v>
@@ -6132,13 +6213,13 @@
         <v>11864</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>198</v>
+        <v>437</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>410</v>
+        <v>438</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6147,34 +6228,34 @@
         <v>38</v>
       </c>
       <c r="C20" s="7">
+        <v>244</v>
+      </c>
+      <c r="D20" s="7">
+        <v>169301</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="H20" s="7">
         <v>234</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>168411</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="H20" s="7">
-        <v>244</v>
-      </c>
-      <c r="I20" s="7">
-        <v>169301</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>413</v>
+        <v>441</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>414</v>
+        <v>442</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="M20" s="7">
         <v>478</v>
@@ -6183,13 +6264,13 @@
         <v>337711</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>417</v>
+        <v>445</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>418</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6198,25 +6279,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>261</v>
+      </c>
+      <c r="D21" s="7">
+        <v>180697</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="7">
         <v>257</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>184433</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21" s="7">
-        <v>261</v>
-      </c>
-      <c r="I21" s="7">
-        <v>180697</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>48</v>
@@ -6245,40 +6326,40 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>7</v>
+      </c>
+      <c r="D22" s="7">
+        <v>4866</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="H22" s="7">
         <v>1</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>713</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H22" s="7">
-        <v>7</v>
-      </c>
-      <c r="I22" s="7">
-        <v>4866</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>419</v>
+        <v>393</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>275</v>
+        <v>450</v>
       </c>
       <c r="M22" s="7">
         <v>8</v>
@@ -6287,13 +6368,13 @@
         <v>5579</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>161</v>
+        <v>451</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>420</v>
+        <v>452</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6302,34 +6383,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>3</v>
+      </c>
+      <c r="D23" s="7">
+        <v>2091</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="H23" s="7">
         <v>2</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>1631</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="H23" s="7">
-        <v>3</v>
-      </c>
-      <c r="I23" s="7">
-        <v>2091</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>421</v>
+        <v>453</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>357</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>422</v>
+        <v>454</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -6344,7 +6425,7 @@
         <v>243</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>423</v>
+        <v>455</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6353,34 +6434,34 @@
         <v>29</v>
       </c>
       <c r="C24" s="7">
+        <v>8</v>
+      </c>
+      <c r="D24" s="7">
+        <v>5857</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="H24" s="7">
         <v>6</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>4284</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="H24" s="7">
-        <v>8</v>
-      </c>
-      <c r="I24" s="7">
-        <v>5857</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>425</v>
+        <v>458</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>186</v>
+        <v>245</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>426</v>
+        <v>459</v>
       </c>
       <c r="M24" s="7">
         <v>14</v>
@@ -6389,13 +6470,13 @@
         <v>10141</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>427</v>
+        <v>335</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>428</v>
+        <v>169</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>104</v>
+        <v>460</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6404,34 +6485,34 @@
         <v>35</v>
       </c>
       <c r="C25" s="7">
+        <v>19</v>
+      </c>
+      <c r="D25" s="7">
+        <v>13156</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H25" s="7">
         <v>10</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>8546</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="H25" s="7">
-        <v>19</v>
-      </c>
-      <c r="I25" s="7">
-        <v>13156</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>431</v>
+        <v>325</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>432</v>
+        <v>392</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>433</v>
+        <v>464</v>
       </c>
       <c r="M25" s="7">
         <v>29</v>
@@ -6440,13 +6521,13 @@
         <v>21702</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>434</v>
+        <v>465</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>435</v>
+        <v>466</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>436</v>
+        <v>467</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6455,34 +6536,34 @@
         <v>38</v>
       </c>
       <c r="C26" s="7">
+        <v>206</v>
+      </c>
+      <c r="D26" s="7">
+        <v>145258</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="H26" s="7">
         <v>209</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>153740</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="H26" s="7">
-        <v>206</v>
-      </c>
-      <c r="I26" s="7">
-        <v>145258</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>440</v>
+        <v>471</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>441</v>
+        <v>472</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>442</v>
+        <v>473</v>
       </c>
       <c r="M26" s="7">
         <v>415</v>
@@ -6491,13 +6572,13 @@
         <v>298999</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>443</v>
+        <v>474</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>444</v>
+        <v>475</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>445</v>
+        <v>476</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6506,25 +6587,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>243</v>
+      </c>
+      <c r="D27" s="7">
+        <v>171227</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" s="7">
         <v>228</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>168914</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H27" s="7">
-        <v>243</v>
-      </c>
-      <c r="I27" s="7">
-        <v>171227</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>48</v>
@@ -6559,34 +6640,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>12</v>
+      </c>
+      <c r="D28" s="7">
+        <v>8103</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="H28" s="7">
         <v>6</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>3983</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H28" s="7">
-        <v>12</v>
-      </c>
-      <c r="I28" s="7">
-        <v>8103</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>447</v>
+        <v>389</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>227</v>
+        <v>478</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>448</v>
+        <v>479</v>
       </c>
       <c r="M28" s="7">
         <v>18</v>
@@ -6595,13 +6676,13 @@
         <v>12087</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>449</v>
+        <v>480</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>450</v>
+        <v>481</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6610,34 +6691,34 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
+        <v>7</v>
+      </c>
+      <c r="D29" s="7">
+        <v>4595</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H29" s="7">
         <v>5</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>3735</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H29" s="7">
-        <v>7</v>
-      </c>
-      <c r="I29" s="7">
-        <v>4595</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>220</v>
+        <v>483</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>324</v>
+        <v>175</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -6646,13 +6727,13 @@
         <v>8330</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>143</v>
+        <v>484</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>304</v>
+        <v>229</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>251</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6661,34 +6742,34 @@
         <v>29</v>
       </c>
       <c r="C30" s="7">
+        <v>23</v>
+      </c>
+      <c r="D30" s="7">
+        <v>15858</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="H30" s="7">
         <v>20</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>14159</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="H30" s="7">
-        <v>23</v>
-      </c>
-      <c r="I30" s="7">
-        <v>15858</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>454</v>
+        <v>244</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>186</v>
+        <v>431</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>455</v>
+        <v>309</v>
       </c>
       <c r="M30" s="7">
         <v>43</v>
@@ -6697,13 +6778,13 @@
         <v>30017</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>180</v>
+        <v>430</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>322</v>
+        <v>352</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6712,34 +6793,34 @@
         <v>35</v>
       </c>
       <c r="C31" s="7">
+        <v>37</v>
+      </c>
+      <c r="D31" s="7">
+        <v>24849</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="H31" s="7">
         <v>40</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>29667</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="H31" s="7">
-        <v>37</v>
-      </c>
-      <c r="I31" s="7">
-        <v>24849</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>459</v>
+        <v>487</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>460</v>
+        <v>64</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>461</v>
+        <v>488</v>
       </c>
       <c r="M31" s="7">
         <v>77</v>
@@ -6748,13 +6829,13 @@
         <v>54516</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>462</v>
+        <v>489</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6763,34 +6844,34 @@
         <v>38</v>
       </c>
       <c r="C32" s="7">
+        <v>878</v>
+      </c>
+      <c r="D32" s="7">
+        <v>584744</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="H32" s="7">
         <v>897</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>627978</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="H32" s="7">
-        <v>878</v>
-      </c>
-      <c r="I32" s="7">
-        <v>584744</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>467</v>
+        <v>493</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>468</v>
+        <v>494</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>469</v>
+        <v>495</v>
       </c>
       <c r="M32" s="7">
         <v>1775</v>
@@ -6799,13 +6880,13 @@
         <v>1212723</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>470</v>
+        <v>496</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>471</v>
+        <v>497</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>128</v>
+        <v>498</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6814,25 +6895,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>957</v>
+      </c>
+      <c r="D33" s="7">
+        <v>638150</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H33" s="7">
         <v>968</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>679522</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H33" s="7">
-        <v>957</v>
-      </c>
-      <c r="I33" s="7">
-        <v>638150</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>48</v>
